--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -65,130 +65,124 @@
     <t>WeekEnd</t>
   </si>
   <si>
-    <t>QMVAR</t>
-  </si>
-  <si>
-    <t>SID PL Tracking-Testing code and Results</t>
-  </si>
-  <si>
-    <t>01/11/2020</t>
-  </si>
-  <si>
-    <t>02/11/2020</t>
-  </si>
-  <si>
-    <t>03/11/2020</t>
-  </si>
-  <si>
-    <t>04/11/2020</t>
-  </si>
-  <si>
-    <t>05/11/2020</t>
-  </si>
-  <si>
-    <t>06/11/2020</t>
-  </si>
-  <si>
-    <t>07/11/2020</t>
-  </si>
-  <si>
-    <t>08/11/2020</t>
-  </si>
-  <si>
-    <t>09/11/2020</t>
-  </si>
-  <si>
-    <t>10/11/2020</t>
-  </si>
-  <si>
-    <t>11/11/2020</t>
-  </si>
-  <si>
-    <t>12/11/2020</t>
-  </si>
-  <si>
-    <t>13/11/2020</t>
-  </si>
-  <si>
-    <t>14/11/2020</t>
-  </si>
-  <si>
-    <t>15/11/2020</t>
-  </si>
-  <si>
-    <t>16/11/2020</t>
-  </si>
-  <si>
-    <t>17/11/2020</t>
-  </si>
-  <si>
-    <t>18/11/2020</t>
-  </si>
-  <si>
-    <t>19/11/2020</t>
-  </si>
-  <si>
-    <t>20/11/2020</t>
-  </si>
-  <si>
-    <t>21/11/2020</t>
-  </si>
-  <si>
-    <t>22/11/2020</t>
-  </si>
-  <si>
-    <t>23/11/2020</t>
-  </si>
-  <si>
-    <t>24/11/2020</t>
-  </si>
-  <si>
-    <t>25/11/2020</t>
-  </si>
-  <si>
-    <t>26/11/2020</t>
-  </si>
-  <si>
-    <t>27/11/2020</t>
-  </si>
-  <si>
-    <t>28/11/2020</t>
-  </si>
-  <si>
-    <t>29/11/2020</t>
-  </si>
-  <si>
-    <t>30/11/2020</t>
-  </si>
-  <si>
     <t>NMVAR</t>
   </si>
   <si>
     <t>Leave</t>
   </si>
   <si>
-    <t>Sick Leave</t>
-  </si>
-  <si>
-    <t>SID PL Tracking-Testing code and error fixing</t>
-  </si>
-  <si>
-    <t>SID PL Tracking-Testing code and calculation testing</t>
-  </si>
-  <si>
-    <t>Analyse the code and error fixing</t>
-  </si>
-  <si>
-    <t>Soniya Japanese issue analyse</t>
-  </si>
-  <si>
-    <t>Soniya Japanese issue analyse and fixed</t>
-  </si>
-  <si>
-    <t>Soniya</t>
-  </si>
-  <si>
-    <t>Inprogress</t>
+    <t>01/12/2020</t>
+  </si>
+  <si>
+    <t>02/12/2020</t>
+  </si>
+  <si>
+    <t>03/12/2020</t>
+  </si>
+  <si>
+    <t>04/12/2020</t>
+  </si>
+  <si>
+    <t>05/12/2020</t>
+  </si>
+  <si>
+    <t>06/12/2020</t>
+  </si>
+  <si>
+    <t>07/12/2020</t>
+  </si>
+  <si>
+    <t>08/12/2020</t>
+  </si>
+  <si>
+    <t>09/12/2020</t>
+  </si>
+  <si>
+    <t>10/12/2020</t>
+  </si>
+  <si>
+    <t>11/12/2020</t>
+  </si>
+  <si>
+    <t>12/12/2020</t>
+  </si>
+  <si>
+    <t>13/12/2020</t>
+  </si>
+  <si>
+    <t>14/12/2020</t>
+  </si>
+  <si>
+    <t>15/12/2020</t>
+  </si>
+  <si>
+    <t>16/12/2020</t>
+  </si>
+  <si>
+    <t>17/12/2020</t>
+  </si>
+  <si>
+    <t>18/12/2020</t>
+  </si>
+  <si>
+    <t>19/12/2020</t>
+  </si>
+  <si>
+    <t>20/12/2020</t>
+  </si>
+  <si>
+    <t>21/12/2020</t>
+  </si>
+  <si>
+    <t>22/12/2020</t>
+  </si>
+  <si>
+    <t>23/12/2020</t>
+  </si>
+  <si>
+    <t>24/12/2020</t>
+  </si>
+  <si>
+    <t>25/12/2020</t>
+  </si>
+  <si>
+    <t>26/12/2020</t>
+  </si>
+  <si>
+    <t>27/12/2020</t>
+  </si>
+  <si>
+    <t>28/12/2020</t>
+  </si>
+  <si>
+    <t>29/12/2020</t>
+  </si>
+  <si>
+    <t>30/12/2020</t>
+  </si>
+  <si>
+    <t>Personal Leave</t>
+  </si>
+  <si>
+    <t>Code changed and tested</t>
+  </si>
+  <si>
+    <t>Design added and tested</t>
+  </si>
+  <si>
+    <t>Hayaai and QMVAR</t>
+  </si>
+  <si>
+    <t>App learning and query bug fixing, QMVAR testing and bug fixing</t>
+  </si>
+  <si>
+    <t>Hayaai Query bug fixing, QMVAR testing and bug fixing</t>
+  </si>
+  <si>
+    <t>Hayaai query bug fixing, QMVAR testing and bug fixing</t>
+  </si>
+  <si>
+    <t>31/12/2020</t>
   </si>
 </sst>
 </file>
@@ -863,7 +857,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -909,7 +903,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -919,15 +916,13 @@
       <c r="B3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="22">
-        <v>0.8</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E3" s="22"/>
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:7">
@@ -937,13 +932,18 @@
       <c r="B4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="30"/>
+        <v>45</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
@@ -952,11 +952,11 @@
       <c r="B5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>12</v>
+      <c r="C5" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F5" s="30"/>
     </row>
@@ -967,12 +967,10 @@
       <c r="B6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>13</v>
-      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="26"/>
       <c r="E6" s="23"/>
       <c r="F6" s="29"/>
     </row>
@@ -983,18 +981,12 @@
       <c r="B7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="23">
-        <v>1</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>5</v>
-      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
@@ -1004,7 +996,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="26"/>
@@ -1017,7 +1012,10 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="29"/>
@@ -1030,10 +1028,10 @@
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="29"/>
@@ -1046,10 +1044,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="30"/>
@@ -1062,12 +1060,14 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="23"/>
+        <v>48</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.5</v>
+      </c>
       <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:7">
@@ -1078,10 +1078,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="29"/>
@@ -1094,14 +1091,9 @@
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="23">
-        <v>0.3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E14" s="23"/>
       <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:7">
@@ -1112,7 +1104,10 @@
         <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="29"/>
@@ -1125,7 +1120,10 @@
         <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="29"/>
@@ -1137,12 +1135,6 @@
       <c r="B17" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E17" s="23"/>
       <c r="F17" s="29"/>
     </row>
@@ -1153,12 +1145,6 @@
       <c r="B18" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:7">
@@ -1168,15 +1154,7 @@
       <c r="B19" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="23">
-        <v>0.5</v>
-      </c>
+      <c r="E19" s="23"/>
       <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:7">
@@ -1187,17 +1165,10 @@
         <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="23">
-        <v>1</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>5</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="24">
@@ -1206,11 +1177,8 @@
       <c r="B21" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>49</v>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="26"/>
@@ -1222,9 +1190,6 @@
       <c r="B22" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E22" s="23"/>
       <c r="F22" s="26"/>
     </row>
@@ -1235,9 +1200,6 @@
       <c r="B23" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D23" s="26"/>
       <c r="E23" s="23"/>
       <c r="F23" s="26"/>
@@ -1249,12 +1211,7 @@
       <c r="B24" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="C24" s="26"/>
       <c r="E24" s="23"/>
       <c r="F24" s="26"/>
       <c r="G24" s="25"/>
@@ -1266,12 +1223,7 @@
       <c r="B25" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="C25" s="26"/>
       <c r="E25" s="23"/>
       <c r="F25" s="26"/>
       <c r="G25" s="25"/>
@@ -1283,12 +1235,7 @@
       <c r="B26" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="C26" s="26"/>
       <c r="E26" s="23"/>
     </row>
     <row r="27" spans="1:7">
@@ -1298,11 +1245,8 @@
       <c r="B27" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>49</v>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E27" s="23"/>
     </row>
@@ -1313,11 +1257,8 @@
       <c r="B28" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>49</v>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="27"/>
@@ -1329,15 +1270,8 @@
       <c r="B29" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="23">
-        <v>0.5</v>
-      </c>
+      <c r="C29" s="26"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:7">
@@ -1347,12 +1281,7 @@
       <c r="B30" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="C30" s="26"/>
       <c r="E30" s="23"/>
       <c r="F30" s="27"/>
     </row>
@@ -1363,20 +1292,17 @@
       <c r="B31" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="C31" s="26"/>
       <c r="E31" s="23"/>
-      <c r="F31" s="27" t="s">
-        <v>53</v>
-      </c>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="24"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="24">
+        <v>31</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="23"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
   <si>
     <t>Task</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t>31/12/2020</t>
+  </si>
+  <si>
+    <t>Hayaai</t>
+  </si>
+  <si>
+    <t>Learning Hayaai app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayaai query bug fixing </t>
   </si>
 </sst>
 </file>
@@ -856,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1135,7 +1144,15 @@
       <c r="B17" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="23"/>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="23">
+        <v>1</v>
+      </c>
       <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:7">
@@ -1144,6 +1161,12 @@
       </c>
       <c r="B18" s="21" t="s">
         <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F18" s="30"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="56">
   <si>
     <t>Task</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hayaai query bug fixing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayaai </t>
   </si>
 </sst>
 </file>
@@ -865,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1176,6 +1179,12 @@
       </c>
       <c r="B19" s="21" t="s">
         <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="30"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
   <si>
     <t>Task</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t xml:space="preserve">Hayaai </t>
+  </si>
+  <si>
+    <t>Learning Hayaai app and Adding 2021 in setup creation exe in QMVAR</t>
+  </si>
+  <si>
+    <t>Learning Hayaai app and database configuration</t>
   </si>
 </sst>
 </file>
@@ -869,7 +875,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1222,6 +1228,12 @@
       <c r="B22" s="21" t="s">
         <v>34</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E22" s="23"/>
       <c r="F22" s="26"/>
     </row>
@@ -1232,7 +1244,12 @@
       <c r="B23" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E23" s="23"/>
       <c r="F23" s="26"/>
     </row>
@@ -1243,7 +1260,12 @@
       <c r="B24" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="26"/>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E24" s="23"/>
       <c r="F24" s="26"/>
       <c r="G24" s="25"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t>Task</t>
   </si>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>Learning Hayaai app and database configuration</t>
+  </si>
+  <si>
+    <t>Hayaai,Soukatsu,Mujistore</t>
+  </si>
+  <si>
+    <t>Learning Hayaai app and database configuration and got KT soukatsu and mujistore from Vijay san</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Christmas</t>
   </si>
 </sst>
 </file>
@@ -874,16 +886,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="65.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.90625" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.81640625" style="1" customWidth="1"/>
@@ -1277,7 +1289,12 @@
       <c r="B25" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="26"/>
+      <c r="C25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="E25" s="23"/>
       <c r="F25" s="26"/>
       <c r="G25" s="25"/>
@@ -1289,7 +1306,12 @@
       <c r="B26" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="26"/>
+      <c r="C26" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="E26" s="23"/>
     </row>
     <row r="27" spans="1:7">

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
   <si>
     <t>Task</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Christmas</t>
+  </si>
+  <si>
+    <t>Completed task given by mamatha san and learning app database</t>
   </si>
 </sst>
 </file>
@@ -887,7 +890,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1346,7 +1349,12 @@
       <c r="B29" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="26"/>
+      <c r="C29" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E29" s="23"/>
       <c r="F29" s="27"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
   <si>
     <t>Task</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>Completed task given by mamatha san and learning app database</t>
+  </si>
+  <si>
+    <t>Image issue discussed with syed san and sent excel file mapping all ids for this image issue and understand database tables</t>
+  </si>
+  <si>
+    <t>Image issue excel file mapping all ids inserted into the corresponding tables and inserting images showing load option not visible in my system</t>
   </si>
 </sst>
 </file>
@@ -890,7 +896,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -898,7 +904,7 @@
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="13.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="120.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.90625" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.81640625" style="1" customWidth="1"/>
@@ -1365,7 +1371,12 @@
       <c r="B30" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="26"/>
+      <c r="C30" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E30" s="23"/>
       <c r="F30" s="27"/>
     </row>
@@ -1376,7 +1387,12 @@
       <c r="B31" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="26"/>
+      <c r="C31" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E31" s="23"/>
       <c r="F31" s="27"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
   <si>
     <t>Task</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Image issue excel file mapping all ids inserted into the corresponding tables and inserting images showing load option not visible in my system</t>
+  </si>
+  <si>
+    <t>In Image issue models, series id and brand id totally added and image column not have rights to be added in my system mail to syed san</t>
   </si>
 </sst>
 </file>
@@ -895,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1403,8 +1406,12 @@
       <c r="B32" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="C32" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="E32" s="23"/>
       <c r="F32" s="27"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -65,166 +65,124 @@
     <t>WeekEnd</t>
   </si>
   <si>
-    <t>NMVAR</t>
-  </si>
-  <si>
-    <t>Leave</t>
-  </si>
-  <si>
-    <t>01/12/2020</t>
-  </si>
-  <si>
-    <t>02/12/2020</t>
-  </si>
-  <si>
-    <t>03/12/2020</t>
-  </si>
-  <si>
-    <t>04/12/2020</t>
-  </si>
-  <si>
-    <t>05/12/2020</t>
-  </si>
-  <si>
-    <t>06/12/2020</t>
-  </si>
-  <si>
-    <t>07/12/2020</t>
-  </si>
-  <si>
-    <t>08/12/2020</t>
-  </si>
-  <si>
-    <t>09/12/2020</t>
-  </si>
-  <si>
-    <t>10/12/2020</t>
-  </si>
-  <si>
-    <t>11/12/2020</t>
-  </si>
-  <si>
-    <t>12/12/2020</t>
-  </si>
-  <si>
-    <t>13/12/2020</t>
-  </si>
-  <si>
-    <t>14/12/2020</t>
-  </si>
-  <si>
-    <t>15/12/2020</t>
-  </si>
-  <si>
-    <t>16/12/2020</t>
-  </si>
-  <si>
-    <t>17/12/2020</t>
-  </si>
-  <si>
-    <t>18/12/2020</t>
-  </si>
-  <si>
-    <t>19/12/2020</t>
-  </si>
-  <si>
-    <t>20/12/2020</t>
-  </si>
-  <si>
-    <t>21/12/2020</t>
-  </si>
-  <si>
-    <t>22/12/2020</t>
-  </si>
-  <si>
-    <t>23/12/2020</t>
-  </si>
-  <si>
-    <t>24/12/2020</t>
-  </si>
-  <si>
-    <t>25/12/2020</t>
-  </si>
-  <si>
-    <t>26/12/2020</t>
-  </si>
-  <si>
-    <t>27/12/2020</t>
-  </si>
-  <si>
-    <t>28/12/2020</t>
-  </si>
-  <si>
-    <t>29/12/2020</t>
-  </si>
-  <si>
-    <t>30/12/2020</t>
-  </si>
-  <si>
-    <t>Personal Leave</t>
-  </si>
-  <si>
-    <t>Code changed and tested</t>
-  </si>
-  <si>
-    <t>Design added and tested</t>
-  </si>
-  <si>
-    <t>Hayaai and QMVAR</t>
-  </si>
-  <si>
-    <t>App learning and query bug fixing, QMVAR testing and bug fixing</t>
-  </si>
-  <si>
-    <t>Hayaai Query bug fixing, QMVAR testing and bug fixing</t>
-  </si>
-  <si>
-    <t>Hayaai query bug fixing, QMVAR testing and bug fixing</t>
-  </si>
-  <si>
-    <t>31/12/2020</t>
-  </si>
-  <si>
     <t>Hayaai</t>
   </si>
   <si>
-    <t>Learning Hayaai app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hayaai query bug fixing </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hayaai </t>
-  </si>
-  <si>
-    <t>Learning Hayaai app and Adding 2021 in setup creation exe in QMVAR</t>
-  </si>
-  <si>
-    <t>Learning Hayaai app and database configuration</t>
-  </si>
-  <si>
-    <t>Hayaai,Soukatsu,Mujistore</t>
-  </si>
-  <si>
-    <t>Learning Hayaai app and database configuration and got KT soukatsu and mujistore from Vijay san</t>
-  </si>
-  <si>
     <t>Holiday</t>
   </si>
   <si>
-    <t>Christmas</t>
-  </si>
-  <si>
-    <t>Completed task given by mamatha san and learning app database</t>
-  </si>
-  <si>
-    <t>Image issue discussed with syed san and sent excel file mapping all ids for this image issue and understand database tables</t>
-  </si>
-  <si>
-    <t>Image issue excel file mapping all ids inserted into the corresponding tables and inserting images showing load option not visible in my system</t>
-  </si>
-  <si>
-    <t>In Image issue models, series id and brand id totally added and image column not have rights to be added in my system mail to syed san</t>
+    <t>01/01/2021</t>
+  </si>
+  <si>
+    <t>02/01/2021</t>
+  </si>
+  <si>
+    <t>03/01/2021</t>
+  </si>
+  <si>
+    <t>04/01/2021</t>
+  </si>
+  <si>
+    <t>31/01/2021</t>
+  </si>
+  <si>
+    <t>30/01/2021</t>
+  </si>
+  <si>
+    <t>29/01/2021</t>
+  </si>
+  <si>
+    <t>28/01/2021</t>
+  </si>
+  <si>
+    <t>27/01/2021</t>
+  </si>
+  <si>
+    <t>26/01/2021</t>
+  </si>
+  <si>
+    <t>25/01/2021</t>
+  </si>
+  <si>
+    <t>24/01/2021</t>
+  </si>
+  <si>
+    <t>23/01/2021</t>
+  </si>
+  <si>
+    <t>22/01/2021</t>
+  </si>
+  <si>
+    <t>21/01/2021</t>
+  </si>
+  <si>
+    <t>20/01/2021</t>
+  </si>
+  <si>
+    <t>19/01/2021</t>
+  </si>
+  <si>
+    <t>18/01/2021</t>
+  </si>
+  <si>
+    <t>17/01/2021</t>
+  </si>
+  <si>
+    <t>16/01/2021</t>
+  </si>
+  <si>
+    <t>15/01/2021</t>
+  </si>
+  <si>
+    <t>14/01/2021</t>
+  </si>
+  <si>
+    <t>13/01/2021</t>
+  </si>
+  <si>
+    <t>12/01/2021</t>
+  </si>
+  <si>
+    <t>11/01/2021</t>
+  </si>
+  <si>
+    <t>10/01/2021</t>
+  </si>
+  <si>
+    <t>09/01/2021</t>
+  </si>
+  <si>
+    <t>08/01/2021</t>
+  </si>
+  <si>
+    <t>07/01/2021</t>
+  </si>
+  <si>
+    <t>06/01/2021</t>
+  </si>
+  <si>
+    <t>05/01/2021</t>
+  </si>
+  <si>
+    <t>New Year</t>
+  </si>
+  <si>
+    <t>Image issue discussed with syed san and understand database tables</t>
+  </si>
+  <si>
+    <t>Hayaai and Github</t>
+  </si>
+  <si>
+    <t>Old image not populating as per Nirmal san mail checked in database and sent mail, gitup looking for source code integration</t>
+  </si>
+  <si>
+    <t>As per matheswari san mail send screenshot for images from db and Github integration going on</t>
+  </si>
+  <si>
+    <t>Hayaai,QMVar and Github</t>
+  </si>
+  <si>
+    <t>As per syed san mail send screenshot for different series id, gathering QMVar requirments from Mohan san and github integration process going on</t>
   </si>
 </sst>
 </file>
@@ -898,16 +856,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="13.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="120.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="125.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.90625" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.81640625" style="1" customWidth="1"/>
@@ -944,11 +900,11 @@
       <c r="B2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
+      <c r="C2" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -959,11 +915,9 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>45</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D3" s="26"/>
       <c r="E3" s="22"/>
       <c r="F3" s="29"/>
     </row>
@@ -975,17 +929,11 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="23">
-        <v>1</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>5</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
@@ -995,10 +943,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F5" s="30"/>
     </row>
@@ -1007,12 +955,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="E6" s="23"/>
       <c r="F6" s="29"/>
     </row>
@@ -1021,12 +971,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="26"/>
+        <v>43</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>49</v>
+      </c>
       <c r="E7" s="23"/>
       <c r="F7" s="29"/>
     </row>
@@ -1035,13 +987,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="26"/>
@@ -1051,13 +1003,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="29"/>
@@ -1067,13 +1013,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="29"/>
@@ -1083,13 +1026,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="30"/>
@@ -1099,17 +1039,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="23">
-        <v>0.5</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E12" s="23"/>
       <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:7">
@@ -1117,10 +1049,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="29"/>
@@ -1130,10 +1059,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="29"/>
@@ -1143,13 +1069,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="29"/>
@@ -1159,13 +1079,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="29"/>
@@ -1175,17 +1089,12 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="23">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E17" s="23"/>
       <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:7">
@@ -1193,13 +1102,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F18" s="30"/>
     </row>
@@ -1210,12 +1116,6 @@
       <c r="B19" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E19" s="23"/>
       <c r="F19" s="30"/>
     </row>
@@ -1224,10 +1124,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="29"/>
@@ -1237,10 +1134,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="26"/>
@@ -1250,13 +1144,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="26"/>
@@ -1266,13 +1154,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="26"/>
@@ -1282,13 +1164,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="26"/>
@@ -1299,13 +1178,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="26"/>
@@ -1316,14 +1192,9 @@
         <v>25</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C26" s="26"/>
       <c r="E26" s="23"/>
     </row>
     <row r="27" spans="1:7">
@@ -1331,10 +1202,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E27" s="23"/>
     </row>
@@ -1343,10 +1211,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="27"/>
@@ -1356,14 +1221,9 @@
         <v>28</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C29" s="26"/>
       <c r="E29" s="23"/>
       <c r="F29" s="27"/>
     </row>
@@ -1372,14 +1232,9 @@
         <v>29</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C30" s="26"/>
       <c r="E30" s="23"/>
       <c r="F30" s="27"/>
     </row>
@@ -1388,13 +1243,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="27"/>
@@ -1404,14 +1256,12 @@
         <v>31</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>65</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="26"/>
       <c r="E32" s="23"/>
       <c r="F32" s="27"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t>Task</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>As per syed san mail send screenshot for different series id, gathering QMVar requirments from Mohan san and github integration process going on</t>
+  </si>
+  <si>
+    <t>QMVar and Github</t>
+  </si>
+  <si>
+    <t>Discussed with Mohan san about requirements clarifications for sony and samsung and github integration going on</t>
   </si>
 </sst>
 </file>
@@ -856,7 +862,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -1004,6 +1012,12 @@
       </c>
       <c r="B9" s="21" t="s">
         <v>41</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="29"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>Task</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Discussed with Mohan san about requirements clarifications for sony and samsung and github integration going on</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Github integration done from local to server code fetched and giving permission process going on</t>
   </si>
 </sst>
 </file>
@@ -863,7 +869,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1054,6 +1060,12 @@
       </c>
       <c r="B12" s="21" t="s">
         <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="30"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>Task</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Github integration done from local to server code fetched and giving permission process going on</t>
+  </si>
+  <si>
+    <t>Github integration done in Ram system and prabu system is in process.</t>
   </si>
 </sst>
 </file>
@@ -869,7 +872,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1076,6 +1079,12 @@
       </c>
       <c r="B13" s="21" t="s">
         <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="29"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>Task</t>
   </si>
@@ -198,6 +198,15 @@
   </si>
   <si>
     <t>Github integration done in Ram system and prabu system is in process.</t>
+  </si>
+  <si>
+    <t>Github integration done in Prabu system and admin previliges also completed</t>
+  </si>
+  <si>
+    <t>Pongal festival</t>
+  </si>
+  <si>
+    <t>Soniya integration with Github going on</t>
   </si>
 </sst>
 </file>
@@ -871,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1096,6 +1105,12 @@
       <c r="B14" s="21" t="s">
         <v>36</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E14" s="23"/>
       <c r="F14" s="29"/>
     </row>
@@ -1106,6 +1121,12 @@
       <c r="B15" s="21" t="s">
         <v>35</v>
       </c>
+      <c r="C15" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E15" s="23"/>
       <c r="F15" s="29"/>
     </row>
@@ -1116,6 +1137,12 @@
       <c r="B16" s="21" t="s">
         <v>34</v>
       </c>
+      <c r="C16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E16" s="23"/>
       <c r="F16" s="29"/>
     </row>
@@ -1151,6 +1178,12 @@
       <c r="B19" s="21" t="s">
         <v>31</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="E19" s="23"/>
       <c r="F19" s="30"/>
     </row>
@@ -1160,6 +1193,12 @@
       </c>
       <c r="B20" s="21" t="s">
         <v>30</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="29"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>Task</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Soniya integration with Github going on</t>
+  </si>
+  <si>
+    <t>Soniya integration in Github done</t>
   </si>
 </sst>
 </file>
@@ -880,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1209,6 +1212,12 @@
       </c>
       <c r="B21" s="21" t="s">
         <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="26"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t>Task</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>Soniya integration in Github done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMVar </t>
+  </si>
+  <si>
+    <t>Setup New service center development going on</t>
   </si>
 </sst>
 </file>
@@ -883,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1228,6 +1234,12 @@
       </c>
       <c r="B22" s="21" t="s">
         <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="26"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
   <si>
     <t>Task</t>
   </si>
@@ -890,7 +890,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1250,6 +1250,12 @@
       </c>
       <c r="B23" s="26" t="s">
         <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="26"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="65">
   <si>
     <t>Task</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>Setup New service center development going on</t>
+  </si>
+  <si>
+    <t>Republic day</t>
+  </si>
+  <si>
+    <t>Setup New service center view part development going on</t>
   </si>
 </sst>
 </file>
@@ -889,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1295,7 +1301,12 @@
       <c r="B26" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="26"/>
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E26" s="23"/>
     </row>
     <row r="27" spans="1:7">
@@ -1305,6 +1316,12 @@
       <c r="B27" s="27" t="s">
         <v>23</v>
       </c>
+      <c r="C27" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:7">
@@ -1313,6 +1330,12 @@
       </c>
       <c r="B28" s="27" t="s">
         <v>22</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="27"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
   <si>
     <t>Task</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>Setup New service center view part development going on</t>
+  </si>
+  <si>
+    <t>Thai Poosam</t>
+  </si>
+  <si>
+    <t>Setup New service center and change password development going on</t>
   </si>
 </sst>
 </file>
@@ -895,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1347,7 +1353,12 @@
       <c r="B29" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="26"/>
+      <c r="C29" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E29" s="23"/>
       <c r="F29" s="27"/>
     </row>
@@ -1358,7 +1369,12 @@
       <c r="B30" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="26"/>
+      <c r="C30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E30" s="23"/>
       <c r="F30" s="27"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>Task</t>
   </si>
@@ -65,169 +65,112 @@
     <t>WeekEnd</t>
   </si>
   <si>
-    <t>Hayaai</t>
-  </si>
-  <si>
-    <t>Holiday</t>
-  </si>
-  <si>
-    <t>01/01/2021</t>
-  </si>
-  <si>
-    <t>02/01/2021</t>
-  </si>
-  <si>
-    <t>03/01/2021</t>
-  </si>
-  <si>
-    <t>04/01/2021</t>
-  </si>
-  <si>
-    <t>31/01/2021</t>
-  </si>
-  <si>
-    <t>30/01/2021</t>
-  </si>
-  <si>
-    <t>29/01/2021</t>
-  </si>
-  <si>
-    <t>28/01/2021</t>
-  </si>
-  <si>
-    <t>27/01/2021</t>
-  </si>
-  <si>
-    <t>26/01/2021</t>
-  </si>
-  <si>
-    <t>25/01/2021</t>
-  </si>
-  <si>
-    <t>24/01/2021</t>
-  </si>
-  <si>
-    <t>23/01/2021</t>
-  </si>
-  <si>
-    <t>22/01/2021</t>
-  </si>
-  <si>
-    <t>21/01/2021</t>
-  </si>
-  <si>
-    <t>20/01/2021</t>
-  </si>
-  <si>
-    <t>19/01/2021</t>
-  </si>
-  <si>
-    <t>18/01/2021</t>
-  </si>
-  <si>
-    <t>17/01/2021</t>
-  </si>
-  <si>
-    <t>16/01/2021</t>
-  </si>
-  <si>
-    <t>15/01/2021</t>
-  </si>
-  <si>
-    <t>14/01/2021</t>
-  </si>
-  <si>
-    <t>13/01/2021</t>
-  </si>
-  <si>
-    <t>12/01/2021</t>
-  </si>
-  <si>
-    <t>11/01/2021</t>
-  </si>
-  <si>
-    <t>10/01/2021</t>
-  </si>
-  <si>
-    <t>09/01/2021</t>
-  </si>
-  <si>
-    <t>08/01/2021</t>
-  </si>
-  <si>
-    <t>07/01/2021</t>
-  </si>
-  <si>
-    <t>06/01/2021</t>
-  </si>
-  <si>
-    <t>05/01/2021</t>
-  </si>
-  <si>
-    <t>New Year</t>
-  </si>
-  <si>
-    <t>Image issue discussed with syed san and understand database tables</t>
-  </si>
-  <si>
-    <t>Hayaai and Github</t>
-  </si>
-  <si>
-    <t>Old image not populating as per Nirmal san mail checked in database and sent mail, gitup looking for source code integration</t>
-  </si>
-  <si>
-    <t>As per matheswari san mail send screenshot for images from db and Github integration going on</t>
-  </si>
-  <si>
-    <t>Hayaai,QMVar and Github</t>
-  </si>
-  <si>
-    <t>As per syed san mail send screenshot for different series id, gathering QMVar requirments from Mohan san and github integration process going on</t>
-  </si>
-  <si>
-    <t>QMVar and Github</t>
-  </si>
-  <si>
-    <t>Discussed with Mohan san about requirements clarifications for sony and samsung and github integration going on</t>
-  </si>
-  <si>
-    <t>Github</t>
-  </si>
-  <si>
-    <t>Github integration done from local to server code fetched and giving permission process going on</t>
-  </si>
-  <si>
-    <t>Github integration done in Ram system and prabu system is in process.</t>
-  </si>
-  <si>
-    <t>Github integration done in Prabu system and admin previliges also completed</t>
-  </si>
-  <si>
-    <t>Pongal festival</t>
-  </si>
-  <si>
-    <t>Soniya integration with Github going on</t>
-  </si>
-  <si>
-    <t>Soniya integration in Github done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QMVar </t>
-  </si>
-  <si>
-    <t>Setup New service center development going on</t>
-  </si>
-  <si>
-    <t>Republic day</t>
-  </si>
-  <si>
-    <t>Setup New service center view part development going on</t>
-  </si>
-  <si>
-    <t>Thai Poosam</t>
-  </si>
-  <si>
-    <t>Setup New service center and change password development going on</t>
+    <t>Setup New Service center development, testing done and integrated to Github</t>
+  </si>
+  <si>
+    <t>QMVAR</t>
+  </si>
+  <si>
+    <t>01/02/2021</t>
+  </si>
+  <si>
+    <t>02/02/2021</t>
+  </si>
+  <si>
+    <t>03/02/2021</t>
+  </si>
+  <si>
+    <t>04/02/2021</t>
+  </si>
+  <si>
+    <t>05/02/2021</t>
+  </si>
+  <si>
+    <t>06/02/2021</t>
+  </si>
+  <si>
+    <t>07/02/2021</t>
+  </si>
+  <si>
+    <t>08/02/2021</t>
+  </si>
+  <si>
+    <t>09/02/2021</t>
+  </si>
+  <si>
+    <t>10/02/2021</t>
+  </si>
+  <si>
+    <t>11/02/2021</t>
+  </si>
+  <si>
+    <t>12/02/2021</t>
+  </si>
+  <si>
+    <t>13/02/2021</t>
+  </si>
+  <si>
+    <t>14/02/2021</t>
+  </si>
+  <si>
+    <t>15/02/2021</t>
+  </si>
+  <si>
+    <t>16/02/2021</t>
+  </si>
+  <si>
+    <t>17/02/2021</t>
+  </si>
+  <si>
+    <t>18/02/2021</t>
+  </si>
+  <si>
+    <t>19/02/2021</t>
+  </si>
+  <si>
+    <t>20/02/2021</t>
+  </si>
+  <si>
+    <t>21/02/2021</t>
+  </si>
+  <si>
+    <t>22/02/2021</t>
+  </si>
+  <si>
+    <t>23/02/2021</t>
+  </si>
+  <si>
+    <t>24/02/2021</t>
+  </si>
+  <si>
+    <t>25/02/2021</t>
+  </si>
+  <si>
+    <t>26/02/2021</t>
+  </si>
+  <si>
+    <t>27/02/2021</t>
+  </si>
+  <si>
+    <t>28/02/2021</t>
+  </si>
+  <si>
+    <t>Setup User screen development with Prabu san</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup User screen development,testing and integrated with github done </t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Personal Leave</t>
+  </si>
+  <si>
+    <t>Looking for Hayaai app for login screen tables and Qm Var Testing issues fixed handover to Nirmal san</t>
+  </si>
+  <si>
+    <t>Hayaai and QMVAR</t>
   </si>
 </sst>
 </file>
@@ -901,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -947,11 +890,11 @@
       <c r="B2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -962,9 +905,11 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="26"/>
+        <v>13</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>42</v>
+      </c>
       <c r="E3" s="22"/>
       <c r="F3" s="29"/>
     </row>
@@ -976,9 +921,11 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="26"/>
+        <v>13</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="E4" s="23"/>
       <c r="F4" s="30"/>
     </row>
@@ -990,10 +937,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="30"/>
     </row>
@@ -1002,13 +949,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="29"/>
@@ -1018,14 +965,12 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>49</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="26"/>
       <c r="E7" s="23"/>
       <c r="F7" s="29"/>
     </row>
@@ -1034,13 +979,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="26"/>
@@ -1050,14 +992,9 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C9" s="26"/>
       <c r="E9" s="23"/>
       <c r="F9" s="29"/>
     </row>
@@ -1066,10 +1003,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="29"/>
@@ -1079,10 +1013,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="30"/>
@@ -1092,13 +1023,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="30"/>
@@ -1108,13 +1033,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="29"/>
@@ -1124,13 +1043,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="29"/>
@@ -1140,13 +1056,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="29"/>
@@ -1156,14 +1069,9 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C16" s="26"/>
       <c r="E16" s="23"/>
       <c r="F16" s="29"/>
     </row>
@@ -1172,10 +1080,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="29"/>
@@ -1185,10 +1090,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F18" s="30"/>
     </row>
@@ -1199,12 +1101,6 @@
       <c r="B19" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E19" s="23"/>
       <c r="F19" s="30"/>
     </row>
@@ -1213,13 +1109,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="29"/>
@@ -1229,13 +1119,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="26"/>
@@ -1245,13 +1132,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="26"/>
@@ -1261,13 +1145,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="26"/>
@@ -1277,10 +1155,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="26"/>
@@ -1291,10 +1166,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="26"/>
@@ -1305,13 +1177,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E26" s="23"/>
     </row>
@@ -1320,14 +1186,9 @@
         <v>26</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C27" s="26"/>
       <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:7">
@@ -1335,13 +1196,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="27"/>
@@ -1351,13 +1209,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="27"/>
@@ -1366,15 +1221,7 @@
       <c r="A30" s="24">
         <v>29</v>
       </c>
-      <c r="B30" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="B30" s="27"/>
       <c r="E30" s="23"/>
       <c r="F30" s="27"/>
     </row>
@@ -1382,12 +1229,7 @@
       <c r="A31" s="24">
         <v>30</v>
       </c>
-      <c r="B31" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B31" s="27"/>
       <c r="E31" s="23"/>
       <c r="F31" s="27"/>
     </row>
@@ -1395,12 +1237,7 @@
       <c r="A32" s="24">
         <v>31</v>
       </c>
-      <c r="B32" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B32" s="27"/>
       <c r="D32" s="26"/>
       <c r="E32" s="23"/>
       <c r="F32" s="27"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
   <si>
     <t>Task</t>
   </si>
@@ -171,6 +171,21 @@
   </si>
   <si>
     <t>Hayaai and QMVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayaai </t>
+  </si>
+  <si>
+    <t>To create new table and insert datas as like test db in new instance db.</t>
+  </si>
+  <si>
+    <t>To add datas in the testdb and new instance db and support Haayai app for login screen development</t>
+  </si>
+  <si>
+    <t>Analyse the Token system requirements and checked in GSS</t>
+  </si>
+  <si>
+    <t>Analyse and Create a table for Token system for Hayaai app.</t>
   </si>
 </sst>
 </file>
@@ -845,7 +860,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -994,7 +1009,12 @@
       <c r="B9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E9" s="23"/>
       <c r="F9" s="29"/>
     </row>
@@ -1005,6 +1025,12 @@
       <c r="B10" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="C10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E10" s="23"/>
       <c r="F10" s="29"/>
     </row>
@@ -1015,6 +1041,12 @@
       <c r="B11" s="21" t="s">
         <v>23</v>
       </c>
+      <c r="C11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E11" s="23"/>
       <c r="F11" s="30"/>
     </row>
@@ -1024,6 +1056,12 @@
       </c>
       <c r="B12" s="21" t="s">
         <v>24</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="30"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>Task</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>Analyse and Create a table for Token system for Hayaai app.</t>
+  </si>
+  <si>
+    <t>Mapping rst_ product_master tables to rst_parts table from testdb to yaara db instance</t>
+  </si>
+  <si>
+    <t>Checked in yaara db for update datas rst_productcategory_master table and analyse the db instance</t>
   </si>
 </sst>
 </file>
@@ -859,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1073,6 +1079,12 @@
       <c r="B13" s="21" t="s">
         <v>25</v>
       </c>
+      <c r="C13" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E13" s="23"/>
       <c r="F13" s="29"/>
     </row>
@@ -1109,7 +1121,12 @@
       <c r="B16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E16" s="23"/>
       <c r="F16" s="29"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
   <si>
     <t>Task</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Checked in yaara db for update datas rst_productcategory_master table and analyse the db instance</t>
+  </si>
+  <si>
+    <t>QmVar Overall issues looking for</t>
   </si>
 </sst>
 </file>
@@ -865,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1136,6 +1139,12 @@
       </c>
       <c r="B17" s="21" t="s">
         <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="29"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
   <si>
     <t>Task</t>
   </si>
@@ -195,6 +195,33 @@
   </si>
   <si>
     <t>QmVar Overall issues looking for</t>
+  </si>
+  <si>
+    <t>QMVAR and Haayai</t>
+  </si>
+  <si>
+    <t>Qmvar issues going on, for hayaai for token system new table created</t>
+  </si>
+  <si>
+    <t>Hayaai app datas issues solved and Qmvar issues going on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMVAR </t>
+  </si>
+  <si>
+    <t>In Qmvar upload summary details close button issue going on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mujistore and Hayaai</t>
+  </si>
+  <si>
+    <t>Fixing 3 issues from mujistore and support database issues for Hayaai app</t>
+  </si>
+  <si>
+    <t>Fixing 2 issues from mujistore and support database issues for Hayaai app</t>
+  </si>
+  <si>
+    <t>Deployment given for Mujistore and support database work for Hayaai app</t>
   </si>
 </sst>
 </file>
@@ -868,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1156,6 +1183,12 @@
       <c r="B18" s="21" t="s">
         <v>30</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:7">
@@ -1165,6 +1198,12 @@
       <c r="B19" s="21" t="s">
         <v>31</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E19" s="23"/>
       <c r="F19" s="30"/>
     </row>
@@ -1175,6 +1214,12 @@
       <c r="B20" s="21" t="s">
         <v>32</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E20" s="23"/>
       <c r="F20" s="29"/>
     </row>
@@ -1211,6 +1256,12 @@
       <c r="B23" s="26" t="s">
         <v>35</v>
       </c>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E23" s="23"/>
       <c r="F23" s="26"/>
     </row>
@@ -1221,6 +1272,12 @@
       <c r="B24" s="26" t="s">
         <v>36</v>
       </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E24" s="23"/>
       <c r="F24" s="26"/>
       <c r="G24" s="25"/>
@@ -1231,6 +1288,12 @@
       </c>
       <c r="B25" s="26" t="s">
         <v>37</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="26"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
   <si>
     <t>Task</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Deployment given for Mujistore and support database work for Hayaai app</t>
+  </si>
+  <si>
+    <t>High priority issues for Mujistore done and deployed and support for database work for Hayaai app</t>
   </si>
 </sst>
 </file>
@@ -895,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1305,6 +1308,12 @@
       </c>
       <c r="B26" s="27" t="s">
         <v>38</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E26" s="23"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
   <si>
     <t>Task</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>High priority issues for Mujistore done and deployed and support for database work for Hayaai app</t>
+  </si>
+  <si>
+    <t>Hayaai</t>
+  </si>
+  <si>
+    <t>Support database work for Hayaai app.</t>
   </si>
 </sst>
 </file>
@@ -283,7 +289,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -898,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1324,7 +1330,12 @@
       <c r="B27" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="26"/>
+      <c r="C27" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:7">

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Task</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>Mujistore and Hayaai</t>
+  </si>
+  <si>
+    <t>Hayaai and Mujistore</t>
+  </si>
+  <si>
+    <t>Analyse the mujistore code and support database work for mujistore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mujistore </t>
+  </si>
+  <si>
+    <t>support for Mujistore issues</t>
   </si>
 </sst>
 </file>
@@ -589,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -681,8 +693,12 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:7">
@@ -692,8 +708,12 @@
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="12"/>
     </row>
@@ -731,7 +751,12 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="12"/>
     </row>
@@ -742,7 +767,12 @@
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="12"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
   <si>
     <t>Task</t>
   </si>
@@ -168,6 +168,42 @@
   </si>
   <si>
     <t>support for Mujistore issues</t>
+  </si>
+  <si>
+    <t>Server side logout issue going on in Mujistore</t>
+  </si>
+  <si>
+    <t>Server side logout issue done, informed to Vijay san</t>
+  </si>
+  <si>
+    <t>NMVAR</t>
+  </si>
+  <si>
+    <t>Report issue going on</t>
+  </si>
+  <si>
+    <t>NMVAR and NQGCare</t>
+  </si>
+  <si>
+    <t>Report issue going on and NQGCare Report issue done</t>
+  </si>
+  <si>
+    <t>Report issue done and sent file Nirmal to test</t>
+  </si>
+  <si>
+    <t>To start to analyse the Qmvar issue,and insert datas for Hayaai app</t>
+  </si>
+  <si>
+    <t>QMVAR and Haayai</t>
+  </si>
+  <si>
+    <t>4 issues fixed  and totally 8 issues fixed sent files to Ram and support db work to insert datas for Hayaai app in testdb</t>
+  </si>
+  <si>
+    <t>4 issues fixed and support db work to insert datas for Hayaai app in testdb</t>
+  </si>
+  <si>
+    <t>4 issues fixed  and totally 8 issues fixed sent files to Ram in QMVAR and support db work to insert datas for Hayaai app in testdb</t>
   </si>
 </sst>
 </file>
@@ -601,20 +637,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.81640625" style="1"/>
     <col min="2" max="2" width="13.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="125.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.90625" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.81640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="8" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -783,7 +819,12 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="13"/>
     </row>
@@ -794,7 +835,12 @@
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="13"/>
     </row>
@@ -805,7 +851,12 @@
       <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="12"/>
     </row>
@@ -842,7 +893,12 @@
       <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="12"/>
     </row>
@@ -853,6 +909,12 @@
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="C17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="12"/>
     </row>
@@ -863,6 +925,12 @@
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:7">
@@ -872,6 +940,12 @@
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="C19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="13"/>
     </row>
@@ -882,6 +956,12 @@
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="C20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="12"/>
     </row>
@@ -918,6 +998,12 @@
       <c r="B23" s="9" t="s">
         <v>30</v>
       </c>
+      <c r="C23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E23" s="6"/>
       <c r="F23" s="9"/>
     </row>
@@ -927,6 +1013,12 @@
       </c>
       <c r="B24" s="9" t="s">
         <v>31</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="9"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Task</t>
   </si>
@@ -197,13 +197,28 @@
     <t>QMVAR and Haayai</t>
   </si>
   <si>
-    <t>4 issues fixed  and totally 8 issues fixed sent files to Ram and support db work to insert datas for Hayaai app in testdb</t>
-  </si>
-  <si>
     <t>4 issues fixed and support db work to insert datas for Hayaai app in testdb</t>
   </si>
   <si>
     <t>4 issues fixed  and totally 8 issues fixed sent files to Ram in QMVAR and support db work to insert datas for Hayaai app in testdb</t>
+  </si>
+  <si>
+    <t>Personal Leave</t>
+  </si>
+  <si>
+    <t>Dashboard requirement db queries writing going on</t>
+  </si>
+  <si>
+    <t>Suppor for hayaai app for remove unwanted datas in table and dashboard queries going on.</t>
+  </si>
+  <si>
+    <t>Dashboard requirement db queries going on and tested Mujistore issues</t>
+  </si>
+  <si>
+    <t>Mujistore</t>
+  </si>
+  <si>
+    <t>Fixing Mujistore issues</t>
   </si>
 </sst>
 </file>
@@ -637,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1002,7 +1017,7 @@
         <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="9"/>
@@ -1018,7 +1033,7 @@
         <v>56</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="9"/>
@@ -1031,6 +1046,9 @@
       <c r="B25" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="C25" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="9"/>
       <c r="G25" s="8"/>
@@ -1042,6 +1060,12 @@
       <c r="B26" s="10" t="s">
         <v>33</v>
       </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:7">
@@ -1051,7 +1075,12 @@
       <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:7">
@@ -1087,6 +1116,12 @@
       <c r="B30" s="10" t="s">
         <v>37</v>
       </c>
+      <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E30" s="6"/>
       <c r="F30" s="10"/>
     </row>
@@ -1096,6 +1131,12 @@
       </c>
       <c r="B31" s="10" t="s">
         <v>38</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="10"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
     <t>Task</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>Fixing Mujistore issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leave</t>
   </si>
 </sst>
 </file>
@@ -652,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1047,6 +1050,9 @@
         <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E25" s="6"/>
@@ -1148,7 +1154,12 @@
       <c r="B32" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="9"/>
+      <c r="C32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E32" s="6"/>
       <c r="F32" s="10"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
-    <sheet name="MAR-2021" sheetId="7" r:id="rId1"/>
+    <sheet name="APR-2021" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Task</t>
   </si>
@@ -50,178 +50,106 @@
     <t>WeekEnd</t>
   </si>
   <si>
-    <t>Hayaai</t>
-  </si>
-  <si>
-    <t>01/03/2021</t>
-  </si>
-  <si>
-    <t>02/03/2021</t>
-  </si>
-  <si>
-    <t>03/03/2021</t>
-  </si>
-  <si>
-    <t>04/03/2021</t>
-  </si>
-  <si>
-    <t>05/03/2021</t>
-  </si>
-  <si>
-    <t>06/03/2021</t>
-  </si>
-  <si>
-    <t>07/03/2021</t>
-  </si>
-  <si>
-    <t>08/03/2021</t>
-  </si>
-  <si>
-    <t>09/03/2021</t>
-  </si>
-  <si>
-    <t>10/03/2021</t>
-  </si>
-  <si>
-    <t>11/03/2021</t>
-  </si>
-  <si>
-    <t>12/03/2021</t>
-  </si>
-  <si>
-    <t>13/03/2021</t>
-  </si>
-  <si>
-    <t>14/03/2021</t>
-  </si>
-  <si>
-    <t>15/03/2021</t>
-  </si>
-  <si>
-    <t>16/03/2021</t>
-  </si>
-  <si>
-    <t>17/03/2021</t>
-  </si>
-  <si>
-    <t>18/03/2021</t>
-  </si>
-  <si>
-    <t>19/03/2021</t>
-  </si>
-  <si>
-    <t>20/03/2021</t>
-  </si>
-  <si>
-    <t>21/03/2021</t>
-  </si>
-  <si>
-    <t>22/03/2021</t>
-  </si>
-  <si>
-    <t>23/03/2021</t>
-  </si>
-  <si>
-    <t>24/03/2021</t>
-  </si>
-  <si>
-    <t>25/03/2021</t>
-  </si>
-  <si>
-    <t>26/03/2021</t>
-  </si>
-  <si>
-    <t>27/03/2021</t>
-  </si>
-  <si>
-    <t>28/03/2021</t>
-  </si>
-  <si>
-    <t>29/03/2021</t>
-  </si>
-  <si>
-    <t>30/03/2021</t>
-  </si>
-  <si>
-    <t>31/03/2021</t>
-  </si>
-  <si>
-    <t>As per requirements scenarios, datas inserted into table ,checked and verified in db</t>
-  </si>
-  <si>
-    <t>Mujistore design issue fixed and sent to deployment and support db work for Hayaai app.</t>
-  </si>
-  <si>
-    <t>Data issue error fixed in Hayaai app and inserted datas in the table and support database for Hayaai app</t>
-  </si>
-  <si>
-    <t>Mujistore and Hayaai</t>
-  </si>
-  <si>
-    <t>Hayaai and Mujistore</t>
-  </si>
-  <si>
-    <t>Analyse the mujistore code and support database work for mujistore</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mujistore </t>
   </si>
   <si>
-    <t>support for Mujistore issues</t>
-  </si>
-  <si>
-    <t>Server side logout issue going on in Mujistore</t>
-  </si>
-  <si>
-    <t>Server side logout issue done, informed to Vijay san</t>
-  </si>
-  <si>
-    <t>NMVAR</t>
-  </si>
-  <si>
-    <t>Report issue going on</t>
-  </si>
-  <si>
-    <t>NMVAR and NQGCare</t>
-  </si>
-  <si>
-    <t>Report issue going on and NQGCare Report issue done</t>
-  </si>
-  <si>
-    <t>Report issue done and sent file Nirmal to test</t>
-  </si>
-  <si>
-    <t>To start to analyse the Qmvar issue,and insert datas for Hayaai app</t>
-  </si>
-  <si>
-    <t>QMVAR and Haayai</t>
-  </si>
-  <si>
-    <t>4 issues fixed and support db work to insert datas for Hayaai app in testdb</t>
-  </si>
-  <si>
-    <t>4 issues fixed  and totally 8 issues fixed sent files to Ram in QMVAR and support db work to insert datas for Hayaai app in testdb</t>
-  </si>
-  <si>
-    <t>Personal Leave</t>
-  </si>
-  <si>
-    <t>Dashboard requirement db queries writing going on</t>
-  </si>
-  <si>
-    <t>Suppor for hayaai app for remove unwanted datas in table and dashboard queries going on.</t>
-  </si>
-  <si>
-    <t>Dashboard requirement db queries going on and tested Mujistore issues</t>
-  </si>
-  <si>
-    <t>Mujistore</t>
-  </si>
-  <si>
-    <t>Fixing Mujistore issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Leave</t>
+    <t>01/04/2021</t>
+  </si>
+  <si>
+    <t>02/04/2021</t>
+  </si>
+  <si>
+    <t>03/04/2021</t>
+  </si>
+  <si>
+    <t>04/04/2021</t>
+  </si>
+  <si>
+    <t>05/04/2021</t>
+  </si>
+  <si>
+    <t>06/04/2021</t>
+  </si>
+  <si>
+    <t>07/04/2021</t>
+  </si>
+  <si>
+    <t>08/04/2021</t>
+  </si>
+  <si>
+    <t>09/04/2021</t>
+  </si>
+  <si>
+    <t>10/04/2021</t>
+  </si>
+  <si>
+    <t>11/04/2021</t>
+  </si>
+  <si>
+    <t>12/04/2021</t>
+  </si>
+  <si>
+    <t>13/04/2021</t>
+  </si>
+  <si>
+    <t>14/04/2021</t>
+  </si>
+  <si>
+    <t>15/04/2021</t>
+  </si>
+  <si>
+    <t>16/04/2021</t>
+  </si>
+  <si>
+    <t>17/04/2021</t>
+  </si>
+  <si>
+    <t>18/04/2021</t>
+  </si>
+  <si>
+    <t>19/04/2021</t>
+  </si>
+  <si>
+    <t>20/04/2021</t>
+  </si>
+  <si>
+    <t>21/04/2021</t>
+  </si>
+  <si>
+    <t>22/04/2021</t>
+  </si>
+  <si>
+    <t>23/04/2021</t>
+  </si>
+  <si>
+    <t>24/04/2021</t>
+  </si>
+  <si>
+    <t>25/04/2021</t>
+  </si>
+  <si>
+    <t>26/04/2021</t>
+  </si>
+  <si>
+    <t>27/04/2021</t>
+  </si>
+  <si>
+    <t>28/04/2021</t>
+  </si>
+  <si>
+    <t>29/04/2021</t>
+  </si>
+  <si>
+    <t>30/04/2021</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Good Friday</t>
+  </si>
+  <si>
+    <t>Fixing going onMujistore submit button issue in video call menu</t>
   </si>
 </sst>
 </file>
@@ -655,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -702,7 +630,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>41</v>
@@ -716,7 +644,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>40</v>
@@ -732,11 +660,9 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>42</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="6"/>
       <c r="F4" s="13"/>
     </row>
@@ -748,11 +674,9 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>45</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D5" s="9"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:7">
@@ -763,10 +687,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="12"/>
@@ -778,9 +702,6 @@
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="6"/>
       <c r="F7" s="12"/>
@@ -792,9 +713,6 @@
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="9"/>
     </row>
@@ -805,12 +723,7 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="C9" s="9"/>
       <c r="E9" s="6"/>
       <c r="F9" s="12"/>
     </row>
@@ -821,12 +734,7 @@
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="C10" s="9"/>
       <c r="E10" s="6"/>
       <c r="F10" s="12"/>
     </row>
@@ -837,11 +745,8 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>48</v>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="13"/>
@@ -853,11 +758,8 @@
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>49</v>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="13"/>
@@ -869,12 +771,7 @@
       <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C13" s="9"/>
       <c r="E13" s="6"/>
       <c r="F13" s="12"/>
     </row>
@@ -885,9 +782,6 @@
       <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="12"/>
     </row>
@@ -898,9 +792,6 @@
       <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="12"/>
     </row>
@@ -911,12 +802,7 @@
       <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C16" s="9"/>
       <c r="E16" s="6"/>
       <c r="F16" s="12"/>
     </row>
@@ -927,12 +813,7 @@
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="C17" s="9"/>
       <c r="E17" s="6"/>
       <c r="F17" s="12"/>
     </row>
@@ -943,11 +824,8 @@
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>51</v>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F18" s="13"/>
     </row>
@@ -958,11 +836,8 @@
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>54</v>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="13"/>
@@ -974,12 +849,7 @@
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="C20" s="9"/>
       <c r="E20" s="6"/>
       <c r="F20" s="12"/>
     </row>
@@ -990,9 +860,6 @@
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="9"/>
     </row>
@@ -1003,9 +870,6 @@
       <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="9"/>
     </row>
@@ -1016,12 +880,7 @@
       <c r="B23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="C23" s="9"/>
       <c r="E23" s="6"/>
       <c r="F23" s="9"/>
     </row>
@@ -1032,12 +891,7 @@
       <c r="B24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="C24" s="9"/>
       <c r="E24" s="6"/>
       <c r="F24" s="9"/>
       <c r="G24" s="8"/>
@@ -1050,10 +904,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="9"/>
@@ -1067,10 +918,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -1081,12 +929,6 @@
       <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:7">
@@ -1096,9 +938,6 @@
       <c r="B28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E28" s="6"/>
       <c r="F28" s="10"/>
     </row>
@@ -1109,9 +948,6 @@
       <c r="B29" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E29" s="6"/>
       <c r="F29" s="10"/>
     </row>
@@ -1122,12 +958,6 @@
       <c r="B30" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E30" s="6"/>
       <c r="F30" s="10"/>
     </row>
@@ -1138,12 +968,6 @@
       <c r="B31" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E31" s="6"/>
       <c r="F31" s="10"/>
     </row>
@@ -1151,15 +975,7 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="B32" s="10"/>
       <c r="E32" s="6"/>
       <c r="F32" s="10"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="APR-2021" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>Task</t>
   </si>
@@ -150,6 +150,33 @@
   </si>
   <si>
     <t>Fixing going onMujistore submit button issue in video call menu</t>
+  </si>
+  <si>
+    <t>NMVar</t>
+  </si>
+  <si>
+    <t>Issue fixed</t>
+  </si>
+  <si>
+    <t>Again some changes given by Vijay san so it is going on</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Personal Leave</t>
+  </si>
+  <si>
+    <t>Point number 20 going on</t>
+  </si>
+  <si>
+    <t>Messages taken from all screens point number 12 fixed</t>
+  </si>
+  <si>
+    <t>Tamil New Year</t>
+  </si>
+  <si>
+    <t>Telugu New Year</t>
   </si>
 </sst>
 </file>
@@ -584,19 +611,19 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1"/>
-    <col min="2" max="2" width="13.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="125.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="13.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="125.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -702,7 +729,12 @@
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="12"/>
     </row>
@@ -713,6 +745,12 @@
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="9"/>
     </row>
@@ -723,7 +761,12 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="12"/>
     </row>
@@ -734,7 +777,12 @@
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="12"/>
     </row>
@@ -771,7 +819,12 @@
       <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="12"/>
     </row>
@@ -782,6 +835,12 @@
       <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="12"/>
     </row>
@@ -792,6 +851,12 @@
       <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="12"/>
     </row>
@@ -802,7 +867,12 @@
       <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="12"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Telugu New Year</t>
+  </si>
+  <si>
+    <t>Validation messages given by sumasen task going on</t>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -883,7 +886,12 @@
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="12"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>Task</t>
   </si>
@@ -179,7 +179,28 @@
     <t>Telugu New Year</t>
   </si>
   <si>
-    <t>Validation messages given by sumasen task going on</t>
+    <t>Validation messages given by sumasan task going on</t>
+  </si>
+  <si>
+    <t>Validation messages and success messages given by sumasan task going on</t>
+  </si>
+  <si>
+    <t>Nearly 185 validation messages changes done in English language and Japanese languages going on</t>
+  </si>
+  <si>
+    <t>Nirmal san issues going on and testing going on and until completed task files sent to deployment…</t>
+  </si>
+  <si>
+    <t>Nirmal san issues done and testing going on</t>
+  </si>
+  <si>
+    <t>Testing done and sent to deployment</t>
+  </si>
+  <si>
+    <t>Election</t>
+  </si>
+  <si>
+    <t>Suma san given Resource file changes done and sent to deployment and file upload development gather req and analyse the scenario.</t>
   </si>
 </sst>
 </file>
@@ -614,7 +635,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -733,10 +754,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="12"/>
@@ -927,7 +948,12 @@
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="12"/>
     </row>
@@ -938,6 +964,12 @@
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="C21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="9"/>
     </row>
@@ -948,6 +980,12 @@
       <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="C22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="9"/>
     </row>
@@ -958,7 +996,12 @@
       <c r="B23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E23" s="6"/>
       <c r="F23" s="9"/>
     </row>
@@ -969,7 +1012,12 @@
       <c r="B24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="9"/>
       <c r="G24" s="8"/>
@@ -1006,6 +1054,12 @@
       </c>
       <c r="B27" s="10" t="s">
         <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E27" s="6"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>Task</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Suma san given Resource file changes done and sent to deployment and file upload development gather req and analyse the scenario.</t>
+  </si>
+  <si>
+    <t>File import scenario implementation going on..</t>
   </si>
 </sst>
 </file>
@@ -634,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1070,6 +1073,12 @@
       <c r="B28" s="10" t="s">
         <v>35</v>
       </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="E28" s="6"/>
       <c r="F28" s="10"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>Task</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>File import scenario implementation going on..</t>
+  </si>
+  <si>
+    <t>File import scenario implementation done and tested by vijay san</t>
+  </si>
+  <si>
+    <t>Analysis the db scenario for validation</t>
+  </si>
+  <si>
+    <t>DB Implementation in code going on</t>
   </si>
 </sst>
 </file>
@@ -637,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1089,6 +1098,12 @@
       <c r="B29" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E29" s="6"/>
       <c r="F29" s="10"/>
     </row>
@@ -1099,6 +1114,12 @@
       <c r="B30" s="10" t="s">
         <v>37</v>
       </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="E30" s="6"/>
       <c r="F30" s="10"/>
     </row>
@@ -1108,6 +1129,12 @@
       </c>
       <c r="B31" s="10" t="s">
         <v>38</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="10"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
   <si>
     <t>Task</t>
   </si>
@@ -50,169 +50,157 @@
     <t>WeekEnd</t>
   </si>
   <si>
-    <t xml:space="preserve">Mujistore </t>
-  </si>
-  <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>02/04/2021</t>
-  </si>
-  <si>
-    <t>03/04/2021</t>
-  </si>
-  <si>
-    <t>04/04/2021</t>
-  </si>
-  <si>
-    <t>05/04/2021</t>
-  </si>
-  <si>
-    <t>06/04/2021</t>
-  </si>
-  <si>
-    <t>07/04/2021</t>
-  </si>
-  <si>
-    <t>08/04/2021</t>
-  </si>
-  <si>
-    <t>09/04/2021</t>
-  </si>
-  <si>
-    <t>10/04/2021</t>
-  </si>
-  <si>
-    <t>11/04/2021</t>
-  </si>
-  <si>
-    <t>12/04/2021</t>
-  </si>
-  <si>
-    <t>13/04/2021</t>
-  </si>
-  <si>
-    <t>14/04/2021</t>
-  </si>
-  <si>
-    <t>15/04/2021</t>
-  </si>
-  <si>
-    <t>16/04/2021</t>
-  </si>
-  <si>
-    <t>17/04/2021</t>
-  </si>
-  <si>
-    <t>18/04/2021</t>
-  </si>
-  <si>
-    <t>19/04/2021</t>
-  </si>
-  <si>
-    <t>20/04/2021</t>
-  </si>
-  <si>
-    <t>21/04/2021</t>
-  </si>
-  <si>
-    <t>22/04/2021</t>
-  </si>
-  <si>
-    <t>23/04/2021</t>
-  </si>
-  <si>
-    <t>24/04/2021</t>
-  </si>
-  <si>
-    <t>25/04/2021</t>
-  </si>
-  <si>
-    <t>26/04/2021</t>
-  </si>
-  <si>
-    <t>27/04/2021</t>
-  </si>
-  <si>
-    <t>28/04/2021</t>
-  </si>
-  <si>
-    <t>29/04/2021</t>
-  </si>
-  <si>
-    <t>30/04/2021</t>
-  </si>
-  <si>
     <t>Holiday</t>
   </si>
   <si>
-    <t>Good Friday</t>
-  </si>
-  <si>
-    <t>Fixing going onMujistore submit button issue in video call menu</t>
-  </si>
-  <si>
-    <t>NMVar</t>
-  </si>
-  <si>
-    <t>Issue fixed</t>
-  </si>
-  <si>
-    <t>Again some changes given by Vijay san so it is going on</t>
+    <t>01/05/2021</t>
+  </si>
+  <si>
+    <t>02/05/2021</t>
+  </si>
+  <si>
+    <t>03/05/2021</t>
+  </si>
+  <si>
+    <t>04/05/2021</t>
+  </si>
+  <si>
+    <t>05/05/2021</t>
+  </si>
+  <si>
+    <t>06/05/2021</t>
+  </si>
+  <si>
+    <t>07/05/2021</t>
+  </si>
+  <si>
+    <t>08/05/2021</t>
+  </si>
+  <si>
+    <t>09/05/2021</t>
+  </si>
+  <si>
+    <t>10/05/2021</t>
+  </si>
+  <si>
+    <t>11/05/2021</t>
+  </si>
+  <si>
+    <t>12/05/2021</t>
+  </si>
+  <si>
+    <t>13/05/2021</t>
+  </si>
+  <si>
+    <t>14/05/2021</t>
+  </si>
+  <si>
+    <t>15/05/2021</t>
+  </si>
+  <si>
+    <t>16/05/2021</t>
+  </si>
+  <si>
+    <t>17/05/2021</t>
+  </si>
+  <si>
+    <t>18/05/2021</t>
+  </si>
+  <si>
+    <t>19/05/2021</t>
+  </si>
+  <si>
+    <t>20/05/2021</t>
+  </si>
+  <si>
+    <t>21/05/2021</t>
+  </si>
+  <si>
+    <t>22/05/2021</t>
+  </si>
+  <si>
+    <t>23/05/2021</t>
+  </si>
+  <si>
+    <t>24/05/2021</t>
+  </si>
+  <si>
+    <t>25/05/2021</t>
+  </si>
+  <si>
+    <t>26/05/2021</t>
+  </si>
+  <si>
+    <t>27/05/2021</t>
+  </si>
+  <si>
+    <t>28/05/2021</t>
+  </si>
+  <si>
+    <t>29/05/2021</t>
+  </si>
+  <si>
+    <t>30/05/2021</t>
+  </si>
+  <si>
+    <t>31/05/2021</t>
+  </si>
+  <si>
+    <t>Mujistore</t>
+  </si>
+  <si>
+    <t>File Import Implementation going on</t>
+  </si>
+  <si>
+    <t>File Import Csv File converting going on</t>
+  </si>
+  <si>
+    <t>Adding columns and read and write csv file in code going on</t>
+  </si>
+  <si>
+    <t>SickLeave</t>
   </si>
   <si>
     <t>Leave</t>
   </si>
   <si>
-    <t>Personal Leave</t>
-  </si>
-  <si>
-    <t>Point number 20 going on</t>
-  </si>
-  <si>
-    <t>Messages taken from all screens point number 12 fixed</t>
-  </si>
-  <si>
-    <t>Tamil New Year</t>
-  </si>
-  <si>
-    <t>Telugu New Year</t>
-  </si>
-  <si>
-    <t>Validation messages given by sumasan task going on</t>
-  </si>
-  <si>
-    <t>Validation messages and success messages given by sumasan task going on</t>
-  </si>
-  <si>
-    <t>Nearly 185 validation messages changes done in English language and Japanese languages going on</t>
-  </si>
-  <si>
-    <t>Nirmal san issues going on and testing going on and until completed task files sent to deployment…</t>
-  </si>
-  <si>
-    <t>Nirmal san issues done and testing going on</t>
-  </si>
-  <si>
-    <t>Testing done and sent to deployment</t>
-  </si>
-  <si>
-    <t>Election</t>
-  </si>
-  <si>
-    <t>Suma san given Resource file changes done and sent to deployment and file upload development gather req and analyse the scenario.</t>
-  </si>
-  <si>
-    <t>File import scenario implementation going on..</t>
-  </si>
-  <si>
-    <t>File import scenario implementation done and tested by vijay san</t>
-  </si>
-  <si>
-    <t>Analysis the db scenario for validation</t>
-  </si>
-  <si>
-    <t>DB Implementation in code going on</t>
+    <t>Video Deploy status update not populated, analyse the code</t>
+  </si>
+  <si>
+    <t>video Deploy status update not populated and video All option video populate not working, going on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video Deploy status update not populated and video All option video populate not working, code changed </t>
+  </si>
+  <si>
+    <t>video Deploy status update not populated and video All option video populate not working, tested and sent to deployment</t>
+  </si>
+  <si>
+    <t>Video All menu, scrollbar gather requirement and analyse the code</t>
+  </si>
+  <si>
+    <t>video All menu, scrollbar gather requirement, code changes going on</t>
+  </si>
+  <si>
+    <t>Ramzan</t>
+  </si>
+  <si>
+    <t>QmVar</t>
+  </si>
+  <si>
+    <t>6 issues fixed in QMVar and Mujistore development stopped</t>
+  </si>
+  <si>
+    <t>5 issues fixed in QmVar</t>
+  </si>
+  <si>
+    <t>8 issues fixed in QMVAR</t>
+  </si>
+  <si>
+    <t>18 issues fixed in QMVAR</t>
+  </si>
+  <si>
+    <t>6 issues fixed in Qmvar and sent to deployment</t>
   </si>
 </sst>
 </file>
@@ -646,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -693,10 +681,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -707,11 +692,9 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>40</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D3" s="9"/>
       <c r="E3" s="5"/>
       <c r="F3" s="12"/>
     </row>
@@ -723,9 +706,11 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="13"/>
     </row>
@@ -737,9 +722,11 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:7">
@@ -750,10 +737,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="12"/>
@@ -766,10 +753,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="12"/>
@@ -782,7 +769,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>44</v>
@@ -797,11 +784,8 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="12"/>
@@ -813,11 +797,8 @@
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>46</v>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="12"/>
@@ -830,7 +811,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="13"/>
@@ -843,7 +827,10 @@
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="13"/>
@@ -856,10 +843,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="12"/>
@@ -872,10 +859,10 @@
         <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="12"/>
@@ -888,10 +875,10 @@
         <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="12"/>
@@ -903,11 +890,8 @@
       <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="12"/>
@@ -920,10 +904,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="12"/>
@@ -936,7 +917,10 @@
         <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F18" s="13"/>
     </row>
@@ -948,7 +932,10 @@
         <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="13"/>
@@ -961,10 +948,10 @@
         <v>27</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="12"/>
@@ -977,10 +964,10 @@
         <v>28</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="9"/>
@@ -993,10 +980,10 @@
         <v>29</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="9"/>
@@ -1008,11 +995,8 @@
       <c r="B23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="9"/>
@@ -1024,11 +1008,8 @@
       <c r="B24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>56</v>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="9"/>
@@ -1042,7 +1023,10 @@
         <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="9"/>
@@ -1056,7 +1040,10 @@
         <v>33</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -1068,7 +1055,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>58</v>
@@ -1083,10 +1070,10 @@
         <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="10"/>
@@ -1099,10 +1086,10 @@
         <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="10"/>
@@ -1115,10 +1102,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="10"/>
@@ -1131,10 +1115,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="10"/>
@@ -1143,7 +1124,9 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="10"/>
+      <c r="B32" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="E32" s="6"/>
       <c r="F32" s="10"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>Task</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>6 issues fixed in Qmvar and sent to deployment</t>
+  </si>
+  <si>
+    <t>12 issues fixed in QMVAR</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1127,6 +1130,12 @@
       <c r="B32" s="10" t="s">
         <v>39</v>
       </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="E32" s="6"/>
       <c r="F32" s="10"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -50,160 +50,136 @@
     <t>WeekEnd</t>
   </si>
   <si>
-    <t>Holiday</t>
-  </si>
-  <si>
-    <t>01/05/2021</t>
-  </si>
-  <si>
-    <t>02/05/2021</t>
-  </si>
-  <si>
-    <t>03/05/2021</t>
-  </si>
-  <si>
-    <t>04/05/2021</t>
-  </si>
-  <si>
-    <t>05/05/2021</t>
-  </si>
-  <si>
-    <t>06/05/2021</t>
-  </si>
-  <si>
-    <t>07/05/2021</t>
-  </si>
-  <si>
-    <t>08/05/2021</t>
-  </si>
-  <si>
-    <t>09/05/2021</t>
-  </si>
-  <si>
-    <t>10/05/2021</t>
-  </si>
-  <si>
-    <t>11/05/2021</t>
-  </si>
-  <si>
-    <t>12/05/2021</t>
-  </si>
-  <si>
-    <t>13/05/2021</t>
-  </si>
-  <si>
-    <t>14/05/2021</t>
-  </si>
-  <si>
-    <t>15/05/2021</t>
-  </si>
-  <si>
-    <t>16/05/2021</t>
-  </si>
-  <si>
-    <t>17/05/2021</t>
-  </si>
-  <si>
-    <t>18/05/2021</t>
-  </si>
-  <si>
-    <t>19/05/2021</t>
-  </si>
-  <si>
-    <t>20/05/2021</t>
-  </si>
-  <si>
-    <t>21/05/2021</t>
-  </si>
-  <si>
-    <t>22/05/2021</t>
-  </si>
-  <si>
-    <t>23/05/2021</t>
-  </si>
-  <si>
-    <t>24/05/2021</t>
-  </si>
-  <si>
-    <t>25/05/2021</t>
-  </si>
-  <si>
-    <t>26/05/2021</t>
-  </si>
-  <si>
-    <t>27/05/2021</t>
-  </si>
-  <si>
-    <t>28/05/2021</t>
-  </si>
-  <si>
-    <t>29/05/2021</t>
-  </si>
-  <si>
-    <t>30/05/2021</t>
-  </si>
-  <si>
-    <t>31/05/2021</t>
-  </si>
-  <si>
-    <t>Mujistore</t>
-  </si>
-  <si>
-    <t>File Import Implementation going on</t>
-  </si>
-  <si>
-    <t>File Import Csv File converting going on</t>
-  </si>
-  <si>
-    <t>Adding columns and read and write csv file in code going on</t>
-  </si>
-  <si>
-    <t>SickLeave</t>
-  </si>
-  <si>
-    <t>Leave</t>
-  </si>
-  <si>
-    <t>Video Deploy status update not populated, analyse the code</t>
-  </si>
-  <si>
-    <t>video Deploy status update not populated and video All option video populate not working, going on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">video Deploy status update not populated and video All option video populate not working, code changed </t>
-  </si>
-  <si>
-    <t>video Deploy status update not populated and video All option video populate not working, tested and sent to deployment</t>
-  </si>
-  <si>
-    <t>Video All menu, scrollbar gather requirement and analyse the code</t>
-  </si>
-  <si>
-    <t>video All menu, scrollbar gather requirement, code changes going on</t>
-  </si>
-  <si>
-    <t>Ramzan</t>
-  </si>
-  <si>
-    <t>QmVar</t>
-  </si>
-  <si>
-    <t>6 issues fixed in QMVar and Mujistore development stopped</t>
-  </si>
-  <si>
-    <t>5 issues fixed in QmVar</t>
-  </si>
-  <si>
-    <t>8 issues fixed in QMVAR</t>
-  </si>
-  <si>
-    <t>18 issues fixed in QMVAR</t>
-  </si>
-  <si>
-    <t>6 issues fixed in Qmvar and sent to deployment</t>
-  </si>
-  <si>
-    <t>12 issues fixed in QMVAR</t>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>02/06/2021</t>
+  </si>
+  <si>
+    <t>03/06/2021</t>
+  </si>
+  <si>
+    <t>04/06/2021</t>
+  </si>
+  <si>
+    <t>05/06/2021</t>
+  </si>
+  <si>
+    <t>06/06/2021</t>
+  </si>
+  <si>
+    <t>07/06/2021</t>
+  </si>
+  <si>
+    <t>08/06/2021</t>
+  </si>
+  <si>
+    <t>09/06/2021</t>
+  </si>
+  <si>
+    <t>10/06/2021</t>
+  </si>
+  <si>
+    <t>11/06/2021</t>
+  </si>
+  <si>
+    <t>12/06/2021</t>
+  </si>
+  <si>
+    <t>13/06/2021</t>
+  </si>
+  <si>
+    <t>14/06/2021</t>
+  </si>
+  <si>
+    <t>15/06/2021</t>
+  </si>
+  <si>
+    <t>16/06/2021</t>
+  </si>
+  <si>
+    <t>17/06/2021</t>
+  </si>
+  <si>
+    <t>18/06/2021</t>
+  </si>
+  <si>
+    <t>19/06/2021</t>
+  </si>
+  <si>
+    <t>20/06/2021</t>
+  </si>
+  <si>
+    <t>21/06/2021</t>
+  </si>
+  <si>
+    <t>22/06/2021</t>
+  </si>
+  <si>
+    <t>23/06/2021</t>
+  </si>
+  <si>
+    <t>24/06/2021</t>
+  </si>
+  <si>
+    <t>25/06/2021</t>
+  </si>
+  <si>
+    <t>26/06/2021</t>
+  </si>
+  <si>
+    <t>27/06/2021</t>
+  </si>
+  <si>
+    <t>28/06/2021</t>
+  </si>
+  <si>
+    <t>29/06/2021</t>
+  </si>
+  <si>
+    <t>30/06/2021</t>
+  </si>
+  <si>
+    <t>QMVAR</t>
+  </si>
+  <si>
+    <t>Mobile View finding the root cause going on</t>
+  </si>
+  <si>
+    <t>GoogleApis analysis the scenario and 15 implementation done</t>
+  </si>
+  <si>
+    <t>Google Apis url from internet to local system implemented 20 files</t>
+  </si>
+  <si>
+    <t>GoogleApis 15 files changed in our local applications</t>
+  </si>
+  <si>
+    <t>GoogleApis 20 files changed and implemented and sent file to deployment</t>
+  </si>
+  <si>
+    <t>20 issues fixed and tested</t>
+  </si>
+  <si>
+    <t>12 issues fixed, tested and sent to deployment</t>
+  </si>
+  <si>
+    <t>Mobile View Login screen and dashboard screen done</t>
+  </si>
+  <si>
+    <t>Navbar and menubar done and 5 screens alignment issues done</t>
+  </si>
+  <si>
+    <t>Image conversion from internet url to local should be implemented in  all pages in QMVar application.</t>
+  </si>
+  <si>
+    <t>Mobile view task done and sent files for deployment</t>
+  </si>
+  <si>
+    <t>Mobile View gathering req and analysis the scenario going on</t>
+  </si>
+  <si>
+    <t>Mobile view task implemented in latest file in Qmvar and sent to deployment and tested</t>
   </si>
 </sst>
 </file>
@@ -637,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -681,10 +657,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -692,12 +671,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="12"/>
     </row>
@@ -706,13 +687,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="13"/>
@@ -722,13 +703,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="13"/>
     </row>
@@ -737,13 +718,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="12"/>
@@ -753,13 +731,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="12"/>
@@ -769,13 +744,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="9"/>
@@ -785,10 +760,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="12"/>
@@ -798,10 +776,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="12"/>
@@ -811,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="13"/>
@@ -827,13 +808,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="13"/>
@@ -843,13 +824,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="12"/>
@@ -859,13 +837,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="12"/>
@@ -875,13 +850,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="12"/>
@@ -891,10 +866,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="12"/>
@@ -904,10 +882,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="12"/>
@@ -917,13 +898,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F18" s="13"/>
     </row>
@@ -932,13 +913,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="13"/>
@@ -948,13 +923,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="12"/>
@@ -964,13 +936,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="9"/>
@@ -980,14 +949,9 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C22" s="9"/>
       <c r="E22" s="6"/>
       <c r="F22" s="9"/>
     </row>
@@ -996,10 +960,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="9"/>
@@ -1009,10 +970,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="9"/>
@@ -1023,13 +981,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="9"/>
@@ -1040,13 +992,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -1055,13 +1001,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="E27" s="6"/>
     </row>
@@ -1070,13 +1013,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="10"/>
@@ -1086,13 +1026,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="10"/>
@@ -1102,10 +1036,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="10"/>
@@ -1115,10 +1046,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="10"/>
@@ -1127,15 +1055,7 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B32" s="10"/>
       <c r="E32" s="6"/>
       <c r="F32" s="10"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>Task</t>
   </si>
@@ -179,7 +179,25 @@
     <t>Mobile View gathering req and analysis the scenario going on</t>
   </si>
   <si>
-    <t>Mobile view task implemented in latest file in Qmvar and sent to deployment and tested</t>
+    <t>Weekly Revenue Report analysis the scenario going on.</t>
+  </si>
+  <si>
+    <t>Weekly Revenue Report gather requirements and analysis the scenario going on.</t>
+  </si>
+  <si>
+    <t>Mobile view task implemented in latest file in Qmvar given by mohansan and tested</t>
+  </si>
+  <si>
+    <t>Mobile view task sent to deployment and Weekly Revenue report document study started.</t>
+  </si>
+  <si>
+    <t>Weekly Revenue Report db analysis and implementation going  on</t>
+  </si>
+  <si>
+    <t>Weekly Revenue Report db datas checked and tested for all service centers</t>
+  </si>
+  <si>
+    <t>Weekly Revenue Report Service centers calculation implementation going on</t>
   </si>
 </sst>
 </file>
@@ -613,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -904,7 +922,7 @@
         <v>38</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F18" s="13"/>
     </row>
@@ -915,6 +933,12 @@
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="13"/>
     </row>
@@ -951,7 +975,12 @@
       <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="9"/>
     </row>
@@ -962,6 +991,12 @@
       <c r="B23" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E23" s="6"/>
       <c r="F23" s="9"/>
     </row>
@@ -972,6 +1007,12 @@
       <c r="B24" s="9" t="s">
         <v>30</v>
       </c>
+      <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="9"/>
       <c r="G24" s="8"/>
@@ -983,6 +1024,12 @@
       <c r="B25" s="9" t="s">
         <v>31</v>
       </c>
+      <c r="C25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="9"/>
       <c r="G25" s="8"/>
@@ -994,6 +1041,12 @@
       <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="C26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:7">
@@ -1027,6 +1080,12 @@
       </c>
       <c r="B29" s="10" t="s">
         <v>35</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="10"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>Task</t>
   </si>
@@ -197,7 +197,16 @@
     <t>Weekly Revenue Report db datas checked and tested for all service centers</t>
   </si>
   <si>
-    <t>Weekly Revenue Report Service centers calculation implementation going on</t>
+    <t>Weekly Revenue Report Service centers datas Validation implementation going on</t>
+  </si>
+  <si>
+    <t>Weekly Revenue Report Service centers datas Validation implementation done</t>
+  </si>
+  <si>
+    <t>Weekly Revenue Report Service centers calculation checking going on</t>
+  </si>
+  <si>
+    <t>Weekly Revenue Report Service centers for report calculation implementation going on</t>
   </si>
 </sst>
 </file>
@@ -631,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1045,7 +1054,7 @@
         <v>38</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -1097,6 +1106,12 @@
       <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="C30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E30" s="6"/>
       <c r="F30" s="10"/>
     </row>
@@ -1106,6 +1121,12 @@
       </c>
       <c r="B31" s="10" t="s">
         <v>37</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="10"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>Task</t>
   </si>
@@ -50,163 +50,160 @@
     <t>WeekEnd</t>
   </si>
   <si>
-    <t>01/06/2021</t>
-  </si>
-  <si>
-    <t>02/06/2021</t>
-  </si>
-  <si>
-    <t>03/06/2021</t>
-  </si>
-  <si>
-    <t>04/06/2021</t>
-  </si>
-  <si>
-    <t>05/06/2021</t>
-  </si>
-  <si>
-    <t>06/06/2021</t>
-  </si>
-  <si>
-    <t>07/06/2021</t>
-  </si>
-  <si>
-    <t>08/06/2021</t>
-  </si>
-  <si>
-    <t>09/06/2021</t>
-  </si>
-  <si>
-    <t>10/06/2021</t>
-  </si>
-  <si>
-    <t>11/06/2021</t>
-  </si>
-  <si>
-    <t>12/06/2021</t>
-  </si>
-  <si>
-    <t>13/06/2021</t>
-  </si>
-  <si>
-    <t>14/06/2021</t>
-  </si>
-  <si>
-    <t>15/06/2021</t>
-  </si>
-  <si>
-    <t>16/06/2021</t>
-  </si>
-  <si>
-    <t>17/06/2021</t>
-  </si>
-  <si>
-    <t>18/06/2021</t>
-  </si>
-  <si>
-    <t>19/06/2021</t>
-  </si>
-  <si>
-    <t>20/06/2021</t>
-  </si>
-  <si>
-    <t>21/06/2021</t>
-  </si>
-  <si>
-    <t>22/06/2021</t>
-  </si>
-  <si>
-    <t>23/06/2021</t>
-  </si>
-  <si>
-    <t>24/06/2021</t>
-  </si>
-  <si>
-    <t>25/06/2021</t>
-  </si>
-  <si>
-    <t>26/06/2021</t>
-  </si>
-  <si>
-    <t>27/06/2021</t>
-  </si>
-  <si>
-    <t>28/06/2021</t>
-  </si>
-  <si>
-    <t>29/06/2021</t>
-  </si>
-  <si>
-    <t>30/06/2021</t>
-  </si>
-  <si>
     <t>QMVAR</t>
   </si>
   <si>
-    <t>Mobile View finding the root cause going on</t>
-  </si>
-  <si>
-    <t>GoogleApis analysis the scenario and 15 implementation done</t>
-  </si>
-  <si>
-    <t>Google Apis url from internet to local system implemented 20 files</t>
-  </si>
-  <si>
-    <t>GoogleApis 15 files changed in our local applications</t>
-  </si>
-  <si>
-    <t>GoogleApis 20 files changed and implemented and sent file to deployment</t>
-  </si>
-  <si>
-    <t>20 issues fixed and tested</t>
-  </si>
-  <si>
-    <t>12 issues fixed, tested and sent to deployment</t>
-  </si>
-  <si>
-    <t>Mobile View Login screen and dashboard screen done</t>
-  </si>
-  <si>
-    <t>Navbar and menubar done and 5 screens alignment issues done</t>
-  </si>
-  <si>
-    <t>Image conversion from internet url to local should be implemented in  all pages in QMVar application.</t>
-  </si>
-  <si>
-    <t>Mobile view task done and sent files for deployment</t>
-  </si>
-  <si>
-    <t>Mobile View gathering req and analysis the scenario going on</t>
-  </si>
-  <si>
-    <t>Weekly Revenue Report analysis the scenario going on.</t>
-  </si>
-  <si>
-    <t>Weekly Revenue Report gather requirements and analysis the scenario going on.</t>
-  </si>
-  <si>
-    <t>Mobile view task implemented in latest file in Qmvar given by mohansan and tested</t>
-  </si>
-  <si>
-    <t>Mobile view task sent to deployment and Weekly Revenue report document study started.</t>
-  </si>
-  <si>
-    <t>Weekly Revenue Report db analysis and implementation going  on</t>
-  </si>
-  <si>
-    <t>Weekly Revenue Report db datas checked and tested for all service centers</t>
-  </si>
-  <si>
-    <t>Weekly Revenue Report Service centers datas Validation implementation going on</t>
-  </si>
-  <si>
-    <t>Weekly Revenue Report Service centers datas Validation implementation done</t>
-  </si>
-  <si>
-    <t>Weekly Revenue Report Service centers calculation checking going on</t>
-  </si>
-  <si>
-    <t>Weekly Revenue Report Service centers for report calculation implementation going on</t>
+    <t>01/07/2021</t>
+  </si>
+  <si>
+    <t>02/07/2021</t>
+  </si>
+  <si>
+    <t>03/07/2021</t>
+  </si>
+  <si>
+    <t>04/07/2021</t>
+  </si>
+  <si>
+    <t>05/07/2021</t>
+  </si>
+  <si>
+    <t>06/07/2021</t>
+  </si>
+  <si>
+    <t>07/07/2021</t>
+  </si>
+  <si>
+    <t>08/07/2021</t>
+  </si>
+  <si>
+    <t>09/07/2021</t>
+  </si>
+  <si>
+    <t>10/07/2021</t>
+  </si>
+  <si>
+    <t>11/07/2021</t>
+  </si>
+  <si>
+    <t>12/07/2021</t>
+  </si>
+  <si>
+    <t>13/07/2021</t>
+  </si>
+  <si>
+    <t>14/07/2021</t>
+  </si>
+  <si>
+    <t>15/07/2021</t>
+  </si>
+  <si>
+    <t>16/07/2021</t>
+  </si>
+  <si>
+    <t>17/07/2021</t>
+  </si>
+  <si>
+    <t>18/07/2021</t>
+  </si>
+  <si>
+    <t>19/07/2021</t>
+  </si>
+  <si>
+    <t>20/07/2021</t>
+  </si>
+  <si>
+    <t>21/07/2021</t>
+  </si>
+  <si>
+    <t>22/07/2021</t>
+  </si>
+  <si>
+    <t>23/07/2021</t>
+  </si>
+  <si>
+    <t>24/07/2021</t>
+  </si>
+  <si>
+    <t>25/07/2021</t>
+  </si>
+  <si>
+    <t>26/07/2021</t>
+  </si>
+  <si>
+    <t>27/07/2021</t>
+  </si>
+  <si>
+    <t>28/07/2021</t>
+  </si>
+  <si>
+    <t>29/07/2021</t>
+  </si>
+  <si>
+    <t>30/07/2021</t>
+  </si>
+  <si>
+    <t>Weeekly Revenue calculation part going on</t>
+  </si>
+  <si>
+    <t>Weekly Revenue Report calculation part done</t>
+  </si>
+  <si>
+    <t>Weekly Revenue Report service center implemention show msg going on</t>
+  </si>
+  <si>
+    <t>Monthly Target screen implementation going on</t>
+  </si>
+  <si>
+    <t>Monthly target screen search option implementation going on</t>
+  </si>
+  <si>
+    <t>Montly Target screen search option implemented and tested</t>
+  </si>
+  <si>
+    <t>Weekly Revenue report div error issue code implementation going on</t>
+  </si>
+  <si>
+    <t>Hoilday</t>
+  </si>
+  <si>
+    <t>Div error fixed and sent to Mohan san</t>
+  </si>
+  <si>
+    <t>As per client requirement previous month report generation implementation going on</t>
+  </si>
+  <si>
+    <t>Previous month report generation going on</t>
+  </si>
+  <si>
+    <t>Previous month report done and datas testing going on</t>
+  </si>
+  <si>
+    <t>Previous month report done and graph dotted line implementation going on</t>
+  </si>
+  <si>
+    <t>Graph Implementation going on</t>
+  </si>
+  <si>
+    <t>Bakrid (Graph implementaion done and testing going on)</t>
+  </si>
+  <si>
+    <t>As per client server db datas comparision and checking going on for Apr,mon,june months</t>
+  </si>
+  <si>
+    <t>As per client server db datas comparision and checked for Apr,mon,june months sent to Mohan san</t>
+  </si>
+  <si>
+    <t>Montly Target screen search option  sent to mohan san</t>
+  </si>
+  <si>
+    <t>Fixed issues in monthly search option as per mohan san suggestion</t>
+  </si>
+  <si>
+    <t>Based on requirement week end datas calculation as per dynamic in graph generation going on</t>
+  </si>
+  <si>
+    <t>Mohan san finding decimal issues in report datas and graph issues fixed and sent to mohan san</t>
   </si>
 </sst>
 </file>
@@ -640,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -684,13 +681,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -698,13 +695,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="12"/>
@@ -714,14 +711,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>40</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="6"/>
       <c r="F4" s="13"/>
     </row>
@@ -730,14 +725,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>41</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D5" s="9"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:7">
@@ -745,10 +738,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="12"/>
@@ -758,10 +754,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="12"/>
@@ -771,10 +770,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>42</v>
@@ -787,10 +786,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>43</v>
@@ -803,13 +802,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="12"/>
@@ -819,13 +818,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="13"/>
@@ -835,13 +834,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="13"/>
@@ -851,10 +850,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="12"/>
@@ -864,10 +866,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="12"/>
@@ -877,13 +882,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="12"/>
@@ -893,13 +898,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="12"/>
@@ -909,10 +914,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -925,13 +930,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F18" s="13"/>
     </row>
@@ -940,13 +945,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="13"/>
@@ -956,10 +961,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="12"/>
@@ -969,10 +977,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="9"/>
@@ -982,13 +993,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="9"/>
@@ -998,13 +1009,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="9"/>
@@ -1014,13 +1025,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="9"/>
@@ -1031,13 +1042,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="9"/>
@@ -1048,13 +1059,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -1063,10 +1071,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E27" s="6"/>
     </row>
@@ -1075,10 +1086,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="10"/>
@@ -1088,13 +1102,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="10"/>
@@ -1104,13 +1115,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="10"/>
@@ -1120,13 +1128,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="10"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
-    <sheet name="APR-2021" sheetId="7" r:id="rId1"/>
+    <sheet name="July-2021" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
   <si>
     <t>Task</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Monthly target screen search option implementation going on</t>
   </si>
   <si>
-    <t>Montly Target screen search option implemented and tested</t>
-  </si>
-  <si>
     <t>Weekly Revenue report div error issue code implementation going on</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>Div error fixed and sent to Mohan san</t>
   </si>
   <si>
-    <t>As per client requirement previous month report generation implementation going on</t>
-  </si>
-  <si>
     <t>Previous month report generation going on</t>
   </si>
   <si>
@@ -194,9 +188,6 @@
     <t>As per client server db datas comparision and checked for Apr,mon,june months sent to Mohan san</t>
   </si>
   <si>
-    <t>Montly Target screen search option  sent to mohan san</t>
-  </si>
-  <si>
     <t>Fixed issues in monthly search option as per mohan san suggestion</t>
   </si>
   <si>
@@ -204,6 +195,27 @@
   </si>
   <si>
     <t>Mohan san finding decimal issues in report datas and graph issues fixed and sent to mohan san</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Personal Leave</t>
+  </si>
+  <si>
+    <t>Weekly graph dynamic code generation going on</t>
+  </si>
+  <si>
+    <t>Weekly Graph dynamic code generation  completed sent to deployment</t>
+  </si>
+  <si>
+    <t>Montly Target screen search four options implemented and tested</t>
+  </si>
+  <si>
+    <t>Montly Target screen search options  sent to mohan san</t>
+  </si>
+  <si>
+    <t>As per client requirement previous month report generation implementation going on in a single result</t>
   </si>
 </sst>
 </file>
@@ -637,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -808,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="12"/>
@@ -824,7 +836,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="13"/>
@@ -840,7 +852,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="13"/>
@@ -856,7 +868,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="12"/>
@@ -872,7 +884,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="12"/>
@@ -888,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="12"/>
@@ -904,7 +916,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="12"/>
@@ -920,7 +932,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="12"/>
@@ -936,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="13"/>
     </row>
@@ -951,7 +963,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="13"/>
@@ -967,7 +979,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="12"/>
@@ -983,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="9"/>
@@ -996,10 +1008,10 @@
         <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="9"/>
@@ -1015,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="9"/>
@@ -1031,7 +1043,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="9"/>
@@ -1048,7 +1060,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="9"/>
@@ -1077,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E27" s="6"/>
     </row>
@@ -1092,7 +1104,7 @@
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="10"/>
@@ -1105,7 +1117,10 @@
         <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>57</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="10"/>
@@ -1120,6 +1135,9 @@
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D30" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="E30" s="6"/>
       <c r="F30" s="10"/>
     </row>
@@ -1132,6 +1150,9 @@
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="10"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
   <si>
     <t>Task</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>As per client requirement previous month report generation implementation going on in a single result</t>
+  </si>
+  <si>
+    <t>31/07/2021</t>
+  </si>
+  <si>
+    <t>Weekly Graph dynamic code generation reports checked with JP reports and mismatching datas highlighted in red and sent to Mohan san</t>
   </si>
 </sst>
 </file>
@@ -649,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1161,7 +1167,15 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="10"/>
+      <c r="B32" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E32" s="6"/>
       <c r="F32" s="10"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
-    <sheet name="July-2021" sheetId="7" r:id="rId1"/>
+    <sheet name="Aug-2021" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>Task</t>
   </si>
@@ -53,175 +53,157 @@
     <t>QMVAR</t>
   </si>
   <si>
-    <t>01/07/2021</t>
-  </si>
-  <si>
-    <t>02/07/2021</t>
-  </si>
-  <si>
-    <t>03/07/2021</t>
-  </si>
-  <si>
-    <t>04/07/2021</t>
-  </si>
-  <si>
-    <t>05/07/2021</t>
-  </si>
-  <si>
-    <t>06/07/2021</t>
-  </si>
-  <si>
-    <t>07/07/2021</t>
-  </si>
-  <si>
-    <t>08/07/2021</t>
-  </si>
-  <si>
-    <t>09/07/2021</t>
-  </si>
-  <si>
-    <t>10/07/2021</t>
-  </si>
-  <si>
-    <t>11/07/2021</t>
-  </si>
-  <si>
-    <t>12/07/2021</t>
-  </si>
-  <si>
-    <t>13/07/2021</t>
-  </si>
-  <si>
-    <t>14/07/2021</t>
-  </si>
-  <si>
-    <t>15/07/2021</t>
-  </si>
-  <si>
-    <t>16/07/2021</t>
-  </si>
-  <si>
-    <t>17/07/2021</t>
-  </si>
-  <si>
-    <t>18/07/2021</t>
-  </si>
-  <si>
-    <t>19/07/2021</t>
-  </si>
-  <si>
-    <t>20/07/2021</t>
-  </si>
-  <si>
-    <t>21/07/2021</t>
-  </si>
-  <si>
-    <t>22/07/2021</t>
-  </si>
-  <si>
-    <t>23/07/2021</t>
-  </si>
-  <si>
-    <t>24/07/2021</t>
-  </si>
-  <si>
-    <t>25/07/2021</t>
-  </si>
-  <si>
-    <t>26/07/2021</t>
-  </si>
-  <si>
-    <t>27/07/2021</t>
-  </si>
-  <si>
-    <t>28/07/2021</t>
-  </si>
-  <si>
-    <t>29/07/2021</t>
-  </si>
-  <si>
-    <t>30/07/2021</t>
-  </si>
-  <si>
-    <t>Weeekly Revenue calculation part going on</t>
-  </si>
-  <si>
-    <t>Weekly Revenue Report calculation part done</t>
-  </si>
-  <si>
-    <t>Weekly Revenue Report service center implemention show msg going on</t>
-  </si>
-  <si>
-    <t>Monthly Target screen implementation going on</t>
-  </si>
-  <si>
-    <t>Monthly target screen search option implementation going on</t>
-  </si>
-  <si>
-    <t>Weekly Revenue report div error issue code implementation going on</t>
-  </si>
-  <si>
-    <t>Hoilday</t>
-  </si>
-  <si>
-    <t>Div error fixed and sent to Mohan san</t>
-  </si>
-  <si>
-    <t>Previous month report generation going on</t>
-  </si>
-  <si>
-    <t>Previous month report done and datas testing going on</t>
-  </si>
-  <si>
-    <t>Previous month report done and graph dotted line implementation going on</t>
-  </si>
-  <si>
-    <t>Graph Implementation going on</t>
-  </si>
-  <si>
-    <t>Bakrid (Graph implementaion done and testing going on)</t>
-  </si>
-  <si>
-    <t>As per client server db datas comparision and checking going on for Apr,mon,june months</t>
-  </si>
-  <si>
-    <t>As per client server db datas comparision and checked for Apr,mon,june months sent to Mohan san</t>
-  </si>
-  <si>
-    <t>Fixed issues in monthly search option as per mohan san suggestion</t>
-  </si>
-  <si>
-    <t>Based on requirement week end datas calculation as per dynamic in graph generation going on</t>
-  </si>
-  <si>
-    <t>Mohan san finding decimal issues in report datas and graph issues fixed and sent to mohan san</t>
-  </si>
-  <si>
     <t>Leave</t>
   </si>
   <si>
     <t>Personal Leave</t>
   </si>
   <si>
-    <t>Weekly graph dynamic code generation going on</t>
-  </si>
-  <si>
-    <t>Weekly Graph dynamic code generation  completed sent to deployment</t>
-  </si>
-  <si>
-    <t>Montly Target screen search four options implemented and tested</t>
-  </si>
-  <si>
-    <t>Montly Target screen search options  sent to mohan san</t>
-  </si>
-  <si>
-    <t>As per client requirement previous month report generation implementation going on in a single result</t>
-  </si>
-  <si>
-    <t>31/07/2021</t>
-  </si>
-  <si>
-    <t>Weekly Graph dynamic code generation reports checked with JP reports and mismatching datas highlighted in red and sent to Mohan san</t>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>02/08/2021</t>
+  </si>
+  <si>
+    <t>03/08/2021</t>
+  </si>
+  <si>
+    <t>04/08/2021</t>
+  </si>
+  <si>
+    <t>05/08/2021</t>
+  </si>
+  <si>
+    <t>06/08/2021</t>
+  </si>
+  <si>
+    <t>07/08/2021</t>
+  </si>
+  <si>
+    <t>08/08/2021</t>
+  </si>
+  <si>
+    <t>09/08/2021</t>
+  </si>
+  <si>
+    <t>10/08/2021</t>
+  </si>
+  <si>
+    <t>11/08/2021</t>
+  </si>
+  <si>
+    <t>12/08/2021</t>
+  </si>
+  <si>
+    <t>13/08/2021</t>
+  </si>
+  <si>
+    <t>14/08/2021</t>
+  </si>
+  <si>
+    <t>15/08/2021</t>
+  </si>
+  <si>
+    <t>16/08/2021</t>
+  </si>
+  <si>
+    <t>17/08/2021</t>
+  </si>
+  <si>
+    <t>18/08/2021</t>
+  </si>
+  <si>
+    <t>19/08/2021</t>
+  </si>
+  <si>
+    <t>20/08/2021</t>
+  </si>
+  <si>
+    <t>21/08/2021</t>
+  </si>
+  <si>
+    <t>22/08/2021</t>
+  </si>
+  <si>
+    <t>23/08/2021</t>
+  </si>
+  <si>
+    <t>24/08/2021</t>
+  </si>
+  <si>
+    <t>25/08/2021</t>
+  </si>
+  <si>
+    <t>26/08/2021</t>
+  </si>
+  <si>
+    <t>27/08/2021</t>
+  </si>
+  <si>
+    <t>28/08/2021</t>
+  </si>
+  <si>
+    <t>29/08/2021</t>
+  </si>
+  <si>
+    <t>30/08/2021</t>
+  </si>
+  <si>
+    <t>31/08/2021</t>
+  </si>
+  <si>
+    <t>Sick Leave</t>
+  </si>
+  <si>
+    <t>Mobile View Alignment issues going on</t>
+  </si>
+  <si>
+    <t>Monthly Target screen Search button issues and weekly and Call load report alignment based on JP report going on</t>
+  </si>
+  <si>
+    <t>Monthly Target Screen added Call load count field in page and implementation going on</t>
+  </si>
+  <si>
+    <t>Monthly Target screen db added two fields and implementation done</t>
+  </si>
+  <si>
+    <t>Monthly Target Screen Search button added and implementaion going on</t>
+  </si>
+  <si>
+    <t>Monthly Target Screen logic added and implemented</t>
+  </si>
+  <si>
+    <t>Weekly Report some alignment issues handled in graph page</t>
+  </si>
+  <si>
+    <t>Weekly Report checked datas various months and sent to deployment</t>
+  </si>
+  <si>
+    <t>Call Load Requirment analysis going on</t>
+  </si>
+  <si>
+    <t>Calload analysis and implementation going on</t>
+  </si>
+  <si>
+    <t>Call load analysis design page done and code implementation going on</t>
+  </si>
+  <si>
+    <t>Call load db implementaion going on</t>
+  </si>
+  <si>
+    <t>Call load db implementaion done and code implemetation going on</t>
+  </si>
+  <si>
+    <t>Call load code implementaion done and testing going on</t>
+  </si>
+  <si>
+    <t>Call load testing done and sent to deployment</t>
+  </si>
+  <si>
+    <t>Monthly Target screen Search button issues and weekly and Call load report alignment based on JP report done</t>
+  </si>
+  <si>
+    <t>Call Load Requirment gathering going on</t>
   </si>
 </sst>
 </file>
@@ -656,7 +638,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -699,13 +681,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -713,13 +692,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="12"/>
@@ -729,12 +708,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="13"/>
     </row>
@@ -743,12 +724,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:7">
@@ -756,13 +739,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="12"/>
@@ -772,13 +755,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="12"/>
@@ -788,13 +771,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="9"/>
@@ -804,13 +784,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="12"/>
@@ -820,13 +797,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="12"/>
@@ -836,13 +813,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="13"/>
@@ -852,10 +829,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>54</v>
@@ -868,13 +845,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="12"/>
@@ -884,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="12"/>
@@ -900,13 +877,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="12"/>
@@ -916,13 +893,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="12"/>
@@ -932,13 +906,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="12"/>
@@ -948,13 +922,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F18" s="13"/>
     </row>
@@ -963,13 +937,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="13"/>
@@ -979,13 +953,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="12"/>
@@ -995,13 +969,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="9"/>
@@ -1011,13 +985,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="9"/>
@@ -1027,13 +998,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="9"/>
@@ -1043,13 +1011,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="9"/>
@@ -1060,13 +1028,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="9"/>
@@ -1077,10 +1045,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -1089,13 +1060,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E27" s="6"/>
     </row>
@@ -1104,13 +1075,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="10"/>
@@ -1120,13 +1091,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="10"/>
@@ -1136,13 +1104,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="10"/>
@@ -1152,13 +1120,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="10"/>
@@ -1168,13 +1133,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="10"/>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>Task</t>
   </si>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1125,6 +1125,9 @@
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D31" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E31" s="6"/>
       <c r="F31" s="10"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>Task</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Call Load Requirment gathering going on</t>
+  </si>
+  <si>
+    <t>Learning Bootstrap</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1141,6 +1144,9 @@
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D32" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E32" s="6"/>
       <c r="F32" s="10"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
-    <sheet name="Aug-2021" sheetId="7" r:id="rId1"/>
+    <sheet name="Sep-2021" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t>Task</t>
   </si>
@@ -59,154 +59,148 @@
     <t>Personal Leave</t>
   </si>
   <si>
-    <t>01/08/2021</t>
-  </si>
-  <si>
-    <t>02/08/2021</t>
-  </si>
-  <si>
-    <t>03/08/2021</t>
-  </si>
-  <si>
-    <t>04/08/2021</t>
-  </si>
-  <si>
-    <t>05/08/2021</t>
-  </si>
-  <si>
-    <t>06/08/2021</t>
-  </si>
-  <si>
-    <t>07/08/2021</t>
-  </si>
-  <si>
-    <t>08/08/2021</t>
-  </si>
-  <si>
-    <t>09/08/2021</t>
-  </si>
-  <si>
-    <t>10/08/2021</t>
-  </si>
-  <si>
-    <t>11/08/2021</t>
-  </si>
-  <si>
-    <t>12/08/2021</t>
-  </si>
-  <si>
-    <t>13/08/2021</t>
-  </si>
-  <si>
-    <t>14/08/2021</t>
-  </si>
-  <si>
-    <t>15/08/2021</t>
-  </si>
-  <si>
-    <t>16/08/2021</t>
-  </si>
-  <si>
-    <t>17/08/2021</t>
-  </si>
-  <si>
-    <t>18/08/2021</t>
-  </si>
-  <si>
-    <t>19/08/2021</t>
-  </si>
-  <si>
-    <t>20/08/2021</t>
-  </si>
-  <si>
-    <t>21/08/2021</t>
-  </si>
-  <si>
-    <t>22/08/2021</t>
-  </si>
-  <si>
-    <t>23/08/2021</t>
-  </si>
-  <si>
-    <t>24/08/2021</t>
-  </si>
-  <si>
-    <t>25/08/2021</t>
-  </si>
-  <si>
-    <t>26/08/2021</t>
-  </si>
-  <si>
-    <t>27/08/2021</t>
-  </si>
-  <si>
-    <t>28/08/2021</t>
-  </si>
-  <si>
-    <t>29/08/2021</t>
-  </si>
-  <si>
-    <t>30/08/2021</t>
-  </si>
-  <si>
-    <t>31/08/2021</t>
-  </si>
-  <si>
     <t>Sick Leave</t>
   </si>
   <si>
-    <t>Mobile View Alignment issues going on</t>
-  </si>
-  <si>
-    <t>Monthly Target screen Search button issues and weekly and Call load report alignment based on JP report going on</t>
-  </si>
-  <si>
-    <t>Monthly Target Screen added Call load count field in page and implementation going on</t>
-  </si>
-  <si>
-    <t>Monthly Target screen db added two fields and implementation done</t>
-  </si>
-  <si>
-    <t>Monthly Target Screen Search button added and implementaion going on</t>
-  </si>
-  <si>
-    <t>Monthly Target Screen logic added and implemented</t>
-  </si>
-  <si>
-    <t>Weekly Report some alignment issues handled in graph page</t>
-  </si>
-  <si>
-    <t>Weekly Report checked datas various months and sent to deployment</t>
-  </si>
-  <si>
-    <t>Call Load Requirment analysis going on</t>
-  </si>
-  <si>
-    <t>Calload analysis and implementation going on</t>
-  </si>
-  <si>
-    <t>Call load analysis design page done and code implementation going on</t>
-  </si>
-  <si>
-    <t>Call load db implementaion going on</t>
-  </si>
-  <si>
-    <t>Call load db implementaion done and code implemetation going on</t>
-  </si>
-  <si>
-    <t>Call load code implementaion done and testing going on</t>
-  </si>
-  <si>
-    <t>Call load testing done and sent to deployment</t>
-  </si>
-  <si>
-    <t>Monthly Target screen Search button issues and weekly and Call load report alignment based on JP report done</t>
-  </si>
-  <si>
-    <t>Call Load Requirment gathering going on</t>
-  </si>
-  <si>
-    <t>Learning Bootstrap</t>
+    <t>01/09/2021</t>
+  </si>
+  <si>
+    <t>02/09/2021</t>
+  </si>
+  <si>
+    <t>03/09/2021</t>
+  </si>
+  <si>
+    <t>04/09/2021</t>
+  </si>
+  <si>
+    <t>05/09/2021</t>
+  </si>
+  <si>
+    <t>06/09/2021</t>
+  </si>
+  <si>
+    <t>07/09/2021</t>
+  </si>
+  <si>
+    <t>08/09/2021</t>
+  </si>
+  <si>
+    <t>09/09/2021</t>
+  </si>
+  <si>
+    <t>10/09/2021</t>
+  </si>
+  <si>
+    <t>11/09/2021</t>
+  </si>
+  <si>
+    <t>12/09/2021</t>
+  </si>
+  <si>
+    <t>13/09/2021</t>
+  </si>
+  <si>
+    <t>14/09/2021</t>
+  </si>
+  <si>
+    <t>15/09/2021</t>
+  </si>
+  <si>
+    <t>16/09/2021</t>
+  </si>
+  <si>
+    <t>17/09/2021</t>
+  </si>
+  <si>
+    <t>18/09/2021</t>
+  </si>
+  <si>
+    <t>19/09/2021</t>
+  </si>
+  <si>
+    <t>20/09/2021</t>
+  </si>
+  <si>
+    <t>21/09/2021</t>
+  </si>
+  <si>
+    <t>22/09/2021</t>
+  </si>
+  <si>
+    <t>23/09/2021</t>
+  </si>
+  <si>
+    <t>24/09/2021</t>
+  </si>
+  <si>
+    <t>25/09/2021</t>
+  </si>
+  <si>
+    <t>26/09/2021</t>
+  </si>
+  <si>
+    <t>27/09/2021</t>
+  </si>
+  <si>
+    <t>28/09/2021</t>
+  </si>
+  <si>
+    <t>29/09/2021</t>
+  </si>
+  <si>
+    <t>30/09/2021</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Vinayagar Chathurthi</t>
+  </si>
+  <si>
+    <t>Mujistore</t>
+  </si>
+  <si>
+    <t>Document preparation Done</t>
+  </si>
+  <si>
+    <t>Coding optimisation analysis part going on</t>
+  </si>
+  <si>
+    <t>Login and Dashboard page checked</t>
+  </si>
+  <si>
+    <t>Export Data page totally all forms checked</t>
+  </si>
+  <si>
+    <t>File upload, Activity Report, Recovery checked</t>
+  </si>
+  <si>
+    <t>Analysis data all menus checked</t>
+  </si>
+  <si>
+    <t>Analysis the log issues and implementation going on</t>
+  </si>
+  <si>
+    <t>Log issues done and given to deployment</t>
+  </si>
+  <si>
+    <t>Learning Css and bootstrap</t>
+  </si>
+  <si>
+    <t>Document preparation going on for Mujistore</t>
+  </si>
+  <si>
+    <t>QMVAR and Kaisokku</t>
+  </si>
+  <si>
+    <t>Learning Css and bootstrap and got design link for Kaisokku project</t>
+  </si>
+  <si>
+    <t>Kaisokku</t>
+  </si>
+  <si>
+    <t>Analysis the Kaisokku project</t>
   </si>
 </sst>
 </file>
@@ -640,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -684,10 +678,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -695,13 +692,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>49</v>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="12"/>
@@ -711,13 +708,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>50</v>
+      <c r="D4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="13"/>
@@ -727,14 +724,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>59</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D5" s="9"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:7">
@@ -742,13 +737,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="12"/>
@@ -758,13 +750,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="12"/>
@@ -774,10 +766,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="9"/>
@@ -787,10 +782,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="12"/>
@@ -800,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="12"/>
@@ -816,13 +814,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="13"/>
@@ -832,13 +830,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="13"/>
@@ -848,13 +843,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="12"/>
@@ -864,13 +856,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="12"/>
@@ -880,13 +872,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="12"/>
@@ -896,10 +888,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="12"/>
@@ -909,13 +904,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="12"/>
@@ -925,13 +920,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F18" s="13"/>
     </row>
@@ -940,13 +935,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="13"/>
@@ -956,13 +948,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="12"/>
@@ -972,13 +961,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="9"/>
@@ -988,10 +977,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="9"/>
@@ -1001,10 +993,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="9"/>
@@ -1014,13 +1009,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="9"/>
@@ -1031,13 +1026,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="9"/>
@@ -1048,13 +1043,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -1063,13 +1055,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E27" s="6"/>
     </row>
@@ -1078,13 +1067,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="10"/>
@@ -1094,10 +1083,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="10"/>
@@ -1107,13 +1099,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="10"/>
@@ -1123,30 +1115,20 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A32" s="7"/>
+      <c r="B32" s="10"/>
       <c r="E32" s="6"/>
       <c r="F32" s="10"/>
     </row>

--- a/REVER_DailyTracker_BALAJI.xlsx
+++ b/REVER_DailyTracker_BALAJI.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
-    <sheet name="Sep-2021" sheetId="7" r:id="rId1"/>
+    <sheet name="OCT-2021" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>Task</t>
   </si>
@@ -50,157 +50,169 @@
     <t>WeekEnd</t>
   </si>
   <si>
-    <t>QMVAR</t>
-  </si>
-  <si>
-    <t>Leave</t>
-  </si>
-  <si>
-    <t>Personal Leave</t>
-  </si>
-  <si>
-    <t>Sick Leave</t>
-  </si>
-  <si>
-    <t>01/09/2021</t>
-  </si>
-  <si>
-    <t>02/09/2021</t>
-  </si>
-  <si>
-    <t>03/09/2021</t>
-  </si>
-  <si>
-    <t>04/09/2021</t>
-  </si>
-  <si>
-    <t>05/09/2021</t>
-  </si>
-  <si>
-    <t>06/09/2021</t>
-  </si>
-  <si>
-    <t>07/09/2021</t>
-  </si>
-  <si>
-    <t>08/09/2021</t>
-  </si>
-  <si>
-    <t>09/09/2021</t>
-  </si>
-  <si>
-    <t>10/09/2021</t>
-  </si>
-  <si>
-    <t>11/09/2021</t>
-  </si>
-  <si>
-    <t>12/09/2021</t>
-  </si>
-  <si>
-    <t>13/09/2021</t>
-  </si>
-  <si>
-    <t>14/09/2021</t>
-  </si>
-  <si>
-    <t>15/09/2021</t>
-  </si>
-  <si>
-    <t>16/09/2021</t>
-  </si>
-  <si>
-    <t>17/09/2021</t>
-  </si>
-  <si>
-    <t>18/09/2021</t>
-  </si>
-  <si>
-    <t>19/09/2021</t>
-  </si>
-  <si>
-    <t>20/09/2021</t>
-  </si>
-  <si>
-    <t>21/09/2021</t>
-  </si>
-  <si>
-    <t>22/09/2021</t>
-  </si>
-  <si>
-    <t>23/09/2021</t>
-  </si>
-  <si>
-    <t>24/09/2021</t>
-  </si>
-  <si>
-    <t>25/09/2021</t>
-  </si>
-  <si>
-    <t>26/09/2021</t>
-  </si>
-  <si>
-    <t>27/09/2021</t>
-  </si>
-  <si>
-    <t>28/09/2021</t>
-  </si>
-  <si>
-    <t>29/09/2021</t>
-  </si>
-  <si>
-    <t>30/09/2021</t>
-  </si>
-  <si>
     <t>Holiday</t>
   </si>
   <si>
-    <t>Vinayagar Chathurthi</t>
-  </si>
-  <si>
     <t>Mujistore</t>
   </si>
   <si>
-    <t>Document preparation Done</t>
-  </si>
-  <si>
-    <t>Coding optimisation analysis part going on</t>
-  </si>
-  <si>
-    <t>Login and Dashboard page checked</t>
-  </si>
-  <si>
-    <t>Export Data page totally all forms checked</t>
-  </si>
-  <si>
-    <t>File upload, Activity Report, Recovery checked</t>
-  </si>
-  <si>
-    <t>Analysis data all menus checked</t>
-  </si>
-  <si>
-    <t>Analysis the log issues and implementation going on</t>
-  </si>
-  <si>
-    <t>Log issues done and given to deployment</t>
-  </si>
-  <si>
-    <t>Learning Css and bootstrap</t>
-  </si>
-  <si>
-    <t>Document preparation going on for Mujistore</t>
-  </si>
-  <si>
-    <t>QMVAR and Kaisokku</t>
-  </si>
-  <si>
-    <t>Learning Css and bootstrap and got design link for Kaisokku project</t>
-  </si>
-  <si>
     <t>Kaisokku</t>
   </si>
   <si>
-    <t>Analysis the Kaisokku project</t>
+    <t>31/10/2021</t>
+  </si>
+  <si>
+    <t>01/10/2021</t>
+  </si>
+  <si>
+    <t>02/10/2021</t>
+  </si>
+  <si>
+    <t>03/10/2021</t>
+  </si>
+  <si>
+    <t>04/10/2021</t>
+  </si>
+  <si>
+    <t>05/10/2021</t>
+  </si>
+  <si>
+    <t>06/10/2021</t>
+  </si>
+  <si>
+    <t>07/10/2021</t>
+  </si>
+  <si>
+    <t>08/10/2021</t>
+  </si>
+  <si>
+    <t>09/10/2021</t>
+  </si>
+  <si>
+    <t>10/10/2021</t>
+  </si>
+  <si>
+    <t>11/10/2021</t>
+  </si>
+  <si>
+    <t>12/10/2021</t>
+  </si>
+  <si>
+    <t>13/10/2021</t>
+  </si>
+  <si>
+    <t>14/10/2021</t>
+  </si>
+  <si>
+    <t>15/10/2021</t>
+  </si>
+  <si>
+    <t>16/10/2021</t>
+  </si>
+  <si>
+    <t>17/10/2021</t>
+  </si>
+  <si>
+    <t>18/10/2021</t>
+  </si>
+  <si>
+    <t>19/10/2021</t>
+  </si>
+  <si>
+    <t>20/10/2021</t>
+  </si>
+  <si>
+    <t>21/10/2021</t>
+  </si>
+  <si>
+    <t>22/10/2021</t>
+  </si>
+  <si>
+    <t>23/10/2021</t>
+  </si>
+  <si>
+    <t>24/10/2021</t>
+  </si>
+  <si>
+    <t>25/10/2021</t>
+  </si>
+  <si>
+    <t>26/10/2021</t>
+  </si>
+  <si>
+    <t>27/10/2021</t>
+  </si>
+  <si>
+    <t>28/10/2021</t>
+  </si>
+  <si>
+    <t>29/10/2021</t>
+  </si>
+  <si>
+    <t>30/10/2021</t>
+  </si>
+  <si>
+    <t>Pooja Holiday</t>
+  </si>
+  <si>
+    <t>Getting Document preparation work</t>
+  </si>
+  <si>
+    <t>Preparing Db and tables and implemented in design for User Management</t>
+  </si>
+  <si>
+    <t>UserManagement server side code development going on</t>
+  </si>
+  <si>
+    <t>UserMangement alignment issues fixed and completed</t>
+  </si>
+  <si>
+    <t>Page Management analysis the requirement and db implemented</t>
+  </si>
+  <si>
+    <t>Server side code and design done for Page Management</t>
+  </si>
+  <si>
+    <t>Pricing Management analysis the scenario and going on db work</t>
+  </si>
+  <si>
+    <t>Pricing Management db work done, design and server side code going on.</t>
+  </si>
+  <si>
+    <t>UserManagement analysis the requirement and Development going on.</t>
+  </si>
+  <si>
+    <t>11 Mujistore Documents prepared and sent to ElayaSan</t>
+  </si>
+  <si>
+    <t>Mujistore documents some changes done and sent to testing team</t>
+  </si>
+  <si>
+    <t>User Management create new button created</t>
+  </si>
+  <si>
+    <t>Mujistore documents some changes going on</t>
+  </si>
+  <si>
+    <t>Mujistore document changes given by Mohan san</t>
+  </si>
+  <si>
+    <t>Mujistore document changes done and handover to Mohan San</t>
+  </si>
+  <si>
+    <t>Mujistore again document changes done and handover to Mohan San</t>
+  </si>
+  <si>
+    <t>Analysis the flow and 5 issues fixed</t>
+  </si>
+  <si>
+    <t>5 issues fixed</t>
+  </si>
+  <si>
+    <t>Exit Formalites</t>
+  </si>
+  <si>
+    <t>Exit Formalisties done.</t>
   </si>
 </sst>
 </file>
@@ -634,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -681,10 +693,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -695,10 +707,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="12"/>
@@ -711,10 +720,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="13"/>
@@ -727,9 +733,11 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:7">
@@ -740,7 +748,10 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="12"/>
@@ -753,10 +764,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="12"/>
@@ -769,10 +780,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="9"/>
@@ -785,10 +796,10 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="12"/>
@@ -801,10 +812,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="12"/>
@@ -817,10 +825,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="13"/>
@@ -833,7 +838,10 @@
         <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="13"/>
@@ -846,7 +854,10 @@
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="12"/>
@@ -859,10 +870,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="12"/>
@@ -878,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="12"/>
@@ -894,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="12"/>
@@ -907,10 +918,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="12"/>
@@ -923,10 +931,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="F18" s="13"/>
     </row>
@@ -938,7 +943,10 @@
         <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="13"/>
@@ -951,7 +959,10 @@
         <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="12"/>
@@ -964,10 +975,10 @@
         <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="9"/>
@@ -980,10 +991,10 @@
         <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="9"/>
@@ -999,7 +1010,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="9"/>
@@ -1012,10 +1023,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="9"/>
@@ -1029,10 +1037,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="9"/>
@@ -1046,7 +1051,10 @@
         <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -1058,7 +1066,10 @@
         <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E27" s="6"/>
     </row>
@@ -1070,10 +1081,10 @@
         <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="10"/>
@@ -1086,10 +1097,10 @@
         <v>39</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="10"/>
@@ -1102,10 +1113,10 @@
         <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="10"/>
@@ -1118,17 +1129,21 @@
         <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="7"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E32" s="6"/>
       <c r="F32" s="10"/>
     </row>
